--- a/src/specsiser/literature_data/lines_data.xlsx
+++ b/src/specsiser/literature_data/lines_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm Projects\spectra-synthesizer\src\specsiser\literature_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864FDE5-14E2-4387-A151-32B2A1203015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16427150-3538-4C65-8EBD-A5CE661B438B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12444" yWindow="1944" windowWidth="27336" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12792" yWindow="2292" windowWidth="27336" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1602,9 +1602,6 @@
     <t>$3712\,H15$</t>
   </si>
   <si>
-    <t>H1_3704A_b</t>
-  </si>
-  <si>
     <t>3703.86</t>
   </si>
   <si>
@@ -1698,9 +1695,6 @@
     <t>Fe3_4658A</t>
   </si>
   <si>
-    <t>He1r_4713A_b</t>
-  </si>
-  <si>
     <t>4713.14</t>
   </si>
   <si>
@@ -1762,6 +1756,12 @@
   </si>
   <si>
     <t>H1_6563A-N2_6584A-N2_6548A</t>
+  </si>
+  <si>
+    <t>He1r_4713A</t>
+  </si>
+  <si>
+    <t>H1_3704A</t>
   </si>
 </sst>
 </file>
@@ -2271,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ANG111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2458,19 +2458,19 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O3" s="20">
         <v>3685</v>
@@ -2616,7 +2616,7 @@
         <v>25</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O6" s="20">
         <v>3665</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2708,16 +2708,16 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>15</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2758,16 +2758,16 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>15</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="10" spans="1:31" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2808,16 +2808,16 @@
         <v>10</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>15</v>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2858,16 +2858,16 @@
         <v>37</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>15</v>
@@ -3153,10 +3153,10 @@
     </row>
     <row r="17" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3168,16 +3168,16 @@
         <v>139</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>15</v>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3374,16 +3374,16 @@
         <v>37</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3440,10 +3440,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3455,16 +3455,16 @@
         <v>322</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>15</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3505,10 +3505,10 @@
         <v>37</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O24" s="20">
         <v>4605</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>123</v>
@@ -4632,10 +4632,10 @@
         <v>10</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O46" s="20">
         <v>6430</v>
@@ -5138,7 +5138,7 @@
         <v>170</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q56" s="8">
         <f t="shared" si="0"/>

--- a/src/specsiser/literature_data/lines_data.xlsx
+++ b/src/specsiser/literature_data/lines_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm Projects\spectra-synthesizer\src\specsiser\literature_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16427150-3538-4C65-8EBD-A5CE661B438B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689BF642-C82E-4F77-A2FD-971086F35115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12792" yWindow="2292" windowWidth="27336" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="454">
   <si>
     <t>wavelength</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>4740A</t>
-  </si>
-  <si>
-    <t>$4470\,[ArIV]$</t>
   </si>
   <si>
     <t>He2_4686A</t>
@@ -1506,9 +1503,6 @@
     <t>$8446\,HeI$</t>
   </si>
   <si>
-    <t>$7751\,[Ar3]$</t>
-  </si>
-  <si>
     <t>Ne3_3869A</t>
   </si>
   <si>
@@ -1698,12 +1692,6 @@
     <t>4713.14</t>
   </si>
   <si>
-    <t>$4713\,HeI+4711\,[ArIV]$</t>
-  </si>
-  <si>
-    <t>$3712\,H15+3705\,HeI$</t>
-  </si>
-  <si>
     <t>Cl3_5518A</t>
   </si>
   <si>
@@ -1740,15 +1728,9 @@
     <t>O2_7319A-O2_7330A</t>
   </si>
   <si>
-    <t>He1r_4713A-Ar4_4711A</t>
-  </si>
-  <si>
     <t>O2_3726A-O2_3729A</t>
   </si>
   <si>
-    <t>H1r_3704A-He1r_3705A</t>
-  </si>
-  <si>
     <t>H1_6563A_b</t>
   </si>
   <si>
@@ -1758,10 +1740,40 @@
     <t>H1_6563A-N2_6584A-N2_6548A</t>
   </si>
   <si>
-    <t>He1r_4713A</t>
-  </si>
-  <si>
-    <t>H1_3704A</t>
+    <t>Ar4_4711A</t>
+  </si>
+  <si>
+    <t>4713</t>
+  </si>
+  <si>
+    <t>He1_4713A</t>
+  </si>
+  <si>
+    <t>4711A</t>
+  </si>
+  <si>
+    <t>4713A</t>
+  </si>
+  <si>
+    <t>$4711\,[ArIV]$</t>
+  </si>
+  <si>
+    <t>$4713\,HeI$</t>
+  </si>
+  <si>
+    <t>$4740\,[ArIV]$</t>
+  </si>
+  <si>
+    <t>$3704\,HeI$</t>
+  </si>
+  <si>
+    <t>He1_3704A</t>
+  </si>
+  <si>
+    <t>cont</t>
+  </si>
+  <si>
+    <t>$7751\,[ArIII]$</t>
   </si>
 </sst>
 </file>
@@ -2269,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANG111"/>
+  <dimension ref="A1:ANH112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,42 +2302,42 @@
     <col min="16" max="16" width="13.21875" style="20" customWidth="1"/>
     <col min="17" max="17" width="14.21875" style="20" customWidth="1"/>
     <col min="18" max="18" width="13.77734375" style="20" customWidth="1"/>
-    <col min="19" max="20" width="12.109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" style="20" customWidth="1"/>
-    <col min="23" max="23" width="15.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.109375" style="20" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" style="1" customWidth="1"/>
-    <col min="32" max="1047" width="10.77734375" style="1"/>
+    <col min="19" max="21" width="12.109375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="20" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="20" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" style="20" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" style="1" customWidth="1"/>
+    <col min="33" max="1048" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2346,60 +2358,63 @@
         <v>6</v>
       </c>
       <c r="O1" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="T1" s="20" t="s">
-        <v>309</v>
-      </c>
       <c r="U1" s="20" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="V1" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="X1" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA1" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="Y1" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD1" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="AB1" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="B2" s="1">
         <v>3587.28</v>
@@ -2408,16 +2423,16 @@
         <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
@@ -2441,12 +2456,12 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2455,22 +2470,22 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>444</v>
+        <v>15</v>
       </c>
       <c r="O3" s="20">
         <v>3685</v>
@@ -2491,12 +2506,12 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2508,16 +2523,16 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>15</v>
@@ -2541,7 +2556,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2579,11 +2594,11 @@
         <v>3700</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" ref="Q5:Q86" si="0">B5 -5</f>
+        <f t="shared" ref="Q5:Q87" si="0">B5 -5</f>
         <v>3721.0320000000002</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ref="R5:R86" si="1">B5+5</f>
+        <f t="shared" ref="R5:R87" si="1">B5+5</f>
         <v>3731.0320000000002</v>
       </c>
       <c r="S5" s="20">
@@ -2593,7 +2608,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2616,7 +2631,7 @@
         <v>25</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O6" s="20">
         <v>3665</v>
@@ -2639,7 +2654,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2691,12 +2706,12 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2708,16 +2723,16 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>15</v>
@@ -2741,12 +2756,12 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2758,16 +2773,16 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>15</v>
@@ -2791,12 +2806,12 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2808,16 +2823,16 @@
         <v>10</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>15</v>
@@ -2841,12 +2856,12 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2858,16 +2873,16 @@
         <v>37</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>15</v>
@@ -2891,7 +2906,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2943,12 +2958,12 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2957,19 +2972,19 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>15</v>
@@ -2995,7 +3010,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3047,7 +3062,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3099,7 +3114,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3153,10 +3168,10 @@
     </row>
     <row r="17" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3165,19 +3180,19 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>15</v>
@@ -3359,10 +3374,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3374,16 +3389,16 @@
         <v>37</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3440,10 +3455,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3452,19 +3467,19 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>15</v>
@@ -3490,25 +3505,28 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4711</v>
+      </c>
       <c r="I24" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4711</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>442</v>
+        <v>15</v>
       </c>
       <c r="O24" s="20">
         <v>4605</v>
@@ -3517,10 +3535,12 @@
         <v>4635</v>
       </c>
       <c r="Q24" s="8">
+        <f>B24 -5</f>
         <v>4706</v>
       </c>
       <c r="R24" s="8">
-        <v>4720</v>
+        <f>B24+5</f>
+        <v>4716</v>
       </c>
       <c r="S24" s="20">
         <v>4755</v>
@@ -3531,25 +3551,31 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4740</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="1">
-        <v>4740</v>
+        <v>37</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>71</v>
+        <v>446</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>72</v>
+        <v>448</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>15</v>
@@ -3561,12 +3587,10 @@
         <v>4635</v>
       </c>
       <c r="Q25" s="8">
-        <f>B25 -5</f>
-        <v>4735</v>
+        <v>4706</v>
       </c>
       <c r="R25" s="8">
-        <f>B25+5</f>
-        <v>4745</v>
+        <v>4720</v>
       </c>
       <c r="S25" s="20">
         <v>4755</v>
@@ -3577,31 +3601,25 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4740</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J26" s="1">
-        <v>4686</v>
+        <v>4740</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>15</v>
@@ -3613,12 +3631,12 @@
         <v>4635</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="0"/>
-        <v>4681</v>
+        <f>B26 -5</f>
+        <v>4735</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" si="1"/>
-        <v>4691</v>
+        <f>B26+5</f>
+        <v>4745</v>
       </c>
       <c r="S26" s="20">
         <v>4755</v>
@@ -3629,10 +3647,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3641,50 +3659,50 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4686</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O27" s="20">
-        <v>4809.8</v>
+        <v>4605</v>
       </c>
       <c r="P27" s="20">
-        <v>4836.1000000000004</v>
+        <v>4635</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="0"/>
-        <v>4856</v>
+        <v>4681</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="1"/>
-        <v>4866</v>
+        <v>4691</v>
       </c>
       <c r="S27" s="20">
-        <v>4884.3900000000003</v>
+        <v>4755</v>
       </c>
       <c r="T27" s="20">
-        <v>4907.63</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3693,50 +3711,50 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O28" s="20">
-        <v>4887.79</v>
+        <v>4809.8</v>
       </c>
       <c r="P28" s="20">
-        <v>4912.42</v>
+        <v>4836.1000000000004</v>
       </c>
       <c r="Q28" s="8">
-        <f>B28 -3</f>
-        <v>4919</v>
+        <f t="shared" si="0"/>
+        <v>4856</v>
       </c>
       <c r="R28" s="8">
-        <f>B28+3</f>
-        <v>4925</v>
+        <f t="shared" si="1"/>
+        <v>4866</v>
       </c>
       <c r="S28" s="20">
-        <v>4927.7299999999996</v>
+        <v>4884.3900000000003</v>
       </c>
       <c r="T28" s="20">
-        <v>4947.3500000000004</v>
+        <v>4907.63</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>326</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3745,50 +3763,50 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>87</v>
+        <v>329</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O29" s="20">
-        <v>4934.83</v>
+        <v>4887.79</v>
       </c>
       <c r="P29" s="20">
-        <v>4951.1099999999997</v>
+        <v>4912.42</v>
       </c>
       <c r="Q29" s="8">
-        <f t="shared" si="0"/>
-        <v>4953.9110000000001</v>
+        <f>B29 -3</f>
+        <v>4919</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" si="1"/>
-        <v>4963.9110000000001</v>
+        <f>B29+3</f>
+        <v>4925</v>
       </c>
       <c r="S29" s="20">
-        <v>4964.6099999999997</v>
+        <v>4927.7299999999996</v>
       </c>
       <c r="T29" s="20">
-        <v>4982.97</v>
+        <v>4947.3500000000004</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3797,50 +3815,50 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="s">
-        <v>322</v>
+        <v>60</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>323</v>
+        <v>84</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O30" s="20">
-        <v>4969.8500000000004</v>
+        <v>4934.83</v>
       </c>
       <c r="P30" s="20">
-        <v>4979.18</v>
+        <v>4951.1099999999997</v>
       </c>
       <c r="Q30" s="8">
-        <f>B30 -3</f>
-        <v>4984</v>
+        <f t="shared" si="0"/>
+        <v>4953.9110000000001</v>
       </c>
       <c r="R30" s="8">
-        <f>B30+3</f>
-        <v>4990</v>
+        <f t="shared" si="1"/>
+        <v>4963.9110000000001</v>
       </c>
       <c r="S30" s="20">
-        <v>5027.46</v>
+        <v>4964.6099999999997</v>
       </c>
       <c r="T30" s="20">
-        <v>5039.1499999999996</v>
+        <v>4982.97</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3849,50 +3867,50 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1" t="s">
-        <v>60</v>
+        <v>321</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>91</v>
+        <v>323</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O31" s="20">
-        <v>4964.82</v>
+        <v>4969.8500000000004</v>
       </c>
       <c r="P31" s="20">
-        <v>4982.21</v>
+        <v>4979.18</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="0"/>
-        <v>5001.8429999999998</v>
+        <f>B31 -3</f>
+        <v>4984</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" si="1"/>
-        <v>5011.8429999999998</v>
+        <f>B31+3</f>
+        <v>4990</v>
       </c>
       <c r="S31" s="20">
-        <v>5022.43</v>
+        <v>5027.46</v>
       </c>
       <c r="T31" s="20">
-        <v>5041.91</v>
+        <v>5039.1499999999996</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>311</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3901,19 +3919,19 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>312</v>
+        <v>89</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>314</v>
+        <v>91</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>15</v>
@@ -3925,12 +3943,12 @@
         <v>4982.21</v>
       </c>
       <c r="Q32" s="8">
-        <f>B32 -3</f>
-        <v>5013</v>
+        <f t="shared" si="0"/>
+        <v>5001.8429999999998</v>
       </c>
       <c r="R32" s="8">
-        <f>B32+3</f>
-        <v>5019</v>
+        <f t="shared" si="1"/>
+        <v>5011.8429999999998</v>
       </c>
       <c r="S32" s="20">
         <v>5022.43</v>
@@ -3941,10 +3959,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3956,47 +3974,47 @@
         <v>37</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O33" s="20">
-        <v>5028</v>
+        <v>4964.82</v>
       </c>
       <c r="P33" s="20">
-        <v>5034</v>
+        <v>4982.21</v>
       </c>
       <c r="Q33" s="8">
         <f>B33 -3</f>
-        <v>5045</v>
+        <v>5013</v>
       </c>
       <c r="R33" s="8">
         <f>B33+3</f>
-        <v>5051</v>
+        <v>5019</v>
       </c>
       <c r="S33" s="20">
-        <v>5062</v>
+        <v>5022.43</v>
       </c>
       <c r="T33" s="20">
-        <v>5073</v>
+        <v>5041.91</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4005,50 +4023,50 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1" t="s">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O34" s="20">
-        <v>5150.2569999999996</v>
+        <v>5028</v>
       </c>
       <c r="P34" s="20">
-        <v>5175.2569999999996</v>
+        <v>5034</v>
       </c>
       <c r="Q34" s="8">
         <f>B34 -3</f>
-        <v>5197.2569999999996</v>
+        <v>5045</v>
       </c>
       <c r="R34" s="8">
         <f>B34+3</f>
-        <v>5203.2569999999996</v>
+        <v>5051</v>
       </c>
       <c r="S34" s="20">
-        <v>5225.2569999999996</v>
+        <v>5062</v>
       </c>
       <c r="T34" s="20">
-        <v>5250.2569999999996</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4057,50 +4075,50 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O35" s="20">
-        <v>5222</v>
+        <v>5150.2569999999996</v>
       </c>
       <c r="P35" s="20">
-        <v>5247</v>
+        <v>5175.2569999999996</v>
       </c>
       <c r="Q35" s="8">
         <f>B35 -3</f>
-        <v>5269</v>
+        <v>5197.2569999999996</v>
       </c>
       <c r="R35" s="8">
         <f>B35+3</f>
-        <v>5275</v>
+        <v>5203.2569999999996</v>
       </c>
       <c r="S35" s="20">
-        <v>5297</v>
+        <v>5225.2569999999996</v>
       </c>
       <c r="T35" s="20">
-        <v>5322</v>
+        <v>5250.2569999999996</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4109,50 +4127,50 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O36" s="20">
-        <v>5363</v>
+        <v>5222</v>
       </c>
       <c r="P36" s="20">
-        <v>5388</v>
+        <v>5247</v>
       </c>
       <c r="Q36" s="8">
         <f>B36 -3</f>
-        <v>5410</v>
+        <v>5269</v>
       </c>
       <c r="R36" s="8">
         <f>B36+3</f>
-        <v>5416</v>
+        <v>5275</v>
       </c>
       <c r="S36" s="20">
-        <v>5438</v>
+        <v>5297</v>
       </c>
       <c r="T36" s="20">
-        <v>5463</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4161,50 +4179,50 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1" t="s">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>94</v>
+        <v>341</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>95</v>
+        <v>342</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>96</v>
+        <v>343</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O37" s="20">
-        <v>5486.09</v>
+        <v>5363</v>
       </c>
       <c r="P37" s="20">
-        <v>5508.22</v>
+        <v>5388</v>
       </c>
       <c r="Q37" s="8">
-        <f t="shared" si="0"/>
-        <v>5512.71</v>
+        <f>B37 -3</f>
+        <v>5410</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="1"/>
-        <v>5522.71</v>
+        <f>B37+3</f>
+        <v>5416</v>
       </c>
       <c r="S37" s="20">
-        <v>5522.13</v>
+        <v>5438</v>
       </c>
       <c r="T37" s="20">
-        <v>5533.13</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4213,19 +4231,19 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="K38" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>15</v>
@@ -4238,25 +4256,25 @@
       </c>
       <c r="Q38" s="8">
         <f t="shared" si="0"/>
-        <v>5532.88</v>
+        <v>5512.71</v>
       </c>
       <c r="R38" s="8">
         <f t="shared" si="1"/>
-        <v>5542.88</v>
+        <v>5522.71</v>
       </c>
       <c r="S38" s="20">
-        <v>5555</v>
+        <v>5522.13</v>
       </c>
       <c r="T38" s="20">
-        <v>5575</v>
+        <v>5533.13</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>427</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>429</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4265,50 +4283,50 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O39" s="20">
-        <v>5705</v>
+        <v>5486.09</v>
       </c>
       <c r="P39" s="20">
-        <v>5725</v>
+        <v>5508.22</v>
       </c>
       <c r="Q39" s="8">
         <f t="shared" si="0"/>
-        <v>5750</v>
+        <v>5532.88</v>
       </c>
       <c r="R39" s="8">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>5542.88</v>
       </c>
       <c r="S39" s="20">
-        <v>5770</v>
+        <v>5555</v>
       </c>
       <c r="T39" s="20">
-        <v>5780</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4317,50 +4335,50 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O40" s="20">
-        <v>5841.87</v>
+        <v>5705</v>
       </c>
       <c r="P40" s="20">
-        <v>5858.01</v>
+        <v>5725</v>
       </c>
       <c r="Q40" s="8">
         <f t="shared" si="0"/>
-        <v>5871</v>
+        <v>5750</v>
       </c>
       <c r="R40" s="8">
         <f t="shared" si="1"/>
-        <v>5881</v>
+        <v>5760</v>
       </c>
       <c r="S40" s="20">
-        <v>5885.01</v>
+        <v>5770</v>
       </c>
       <c r="T40" s="20">
-        <v>5904.21</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>345</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>346</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4369,50 +4387,50 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>348</v>
+        <v>107</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>349</v>
+        <v>108</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>350</v>
+        <v>109</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O41" s="20">
-        <v>6274.06</v>
+        <v>5841.87</v>
       </c>
       <c r="P41" s="20">
-        <v>6292.71</v>
+        <v>5858.01</v>
       </c>
       <c r="Q41" s="8">
-        <f>B41 -5</f>
-        <v>6295.3040000000001</v>
+        <f t="shared" si="0"/>
+        <v>5871</v>
       </c>
       <c r="R41" s="8">
-        <f>B41+5</f>
-        <v>6305.3040000000001</v>
+        <f t="shared" si="1"/>
+        <v>5881</v>
       </c>
       <c r="S41" s="20">
-        <v>6316.5</v>
+        <v>5885.01</v>
       </c>
       <c r="T41" s="20">
-        <v>6331.39</v>
+        <v>5904.21</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>344</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -4421,50 +4439,50 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1" t="s">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O42" s="20">
-        <v>6275.72</v>
+        <v>6274.06</v>
       </c>
       <c r="P42" s="20">
-        <v>6291.17</v>
+        <v>6292.71</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="0"/>
-        <v>6307.06</v>
+        <f>B42 -5</f>
+        <v>6295.3040000000001</v>
       </c>
       <c r="R42" s="8">
         <f>B42+5</f>
-        <v>6317.06</v>
+        <v>6305.3040000000001</v>
       </c>
       <c r="S42" s="20">
-        <v>6316.08</v>
+        <v>6316.5</v>
       </c>
       <c r="T42" s="20">
-        <v>6331.52</v>
+        <v>6331.39</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>352</v>
+        <v>111</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4473,50 +4491,50 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1" t="s">
-        <v>347</v>
+        <v>112</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>354</v>
+        <v>114</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>355</v>
+        <v>115</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O43" s="20">
-        <v>6341.48</v>
+        <v>6275.72</v>
       </c>
       <c r="P43" s="20">
-        <v>6356.79</v>
+        <v>6291.17</v>
       </c>
       <c r="Q43" s="8">
-        <f>B43 -5</f>
-        <v>6358.7759999999998</v>
+        <f t="shared" si="0"/>
+        <v>6307.06</v>
       </c>
       <c r="R43" s="8">
         <f>B43+5</f>
-        <v>6368.7759999999998</v>
+        <v>6317.06</v>
       </c>
       <c r="S43" s="20">
-        <v>6377.39</v>
+        <v>6316.08</v>
       </c>
       <c r="T43" s="20">
-        <v>6398.81</v>
+        <v>6331.52</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4525,50 +4543,50 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1" t="s">
-        <v>102</v>
+        <v>346</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>120</v>
+        <v>353</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>121</v>
+        <v>354</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O44" s="20">
-        <v>6497.69</v>
+        <v>6341.48</v>
       </c>
       <c r="P44" s="20">
-        <v>6524.89</v>
+        <v>6356.79</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" si="0"/>
-        <v>6543.05</v>
+        <f>B44 -5</f>
+        <v>6358.7759999999998</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" si="1"/>
-        <v>6553.05</v>
+        <f>B44+5</f>
+        <v>6368.7759999999998</v>
       </c>
       <c r="S44" s="20">
-        <v>6593.19</v>
+        <v>6377.39</v>
       </c>
       <c r="T44" s="20">
-        <v>6616.05</v>
+        <v>6398.81</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4577,19 +4595,19 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>15</v>
@@ -4602,11 +4620,11 @@
       </c>
       <c r="Q45" s="8">
         <f t="shared" si="0"/>
-        <v>6557.8190000000004</v>
+        <v>6543.05</v>
       </c>
       <c r="R45" s="8">
         <f t="shared" si="1"/>
-        <v>6567.8190000000004</v>
+        <v>6553.05</v>
       </c>
       <c r="S45" s="20">
         <v>6593.19</v>
@@ -4617,10 +4635,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>445</v>
+        <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -4631,37 +4649,48 @@
       <c r="I46" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="M46" s="2" t="s">
-        <v>446</v>
+        <v>125</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>447</v>
+        <v>15</v>
       </c>
       <c r="O46" s="20">
-        <v>6430</v>
+        <v>6497.69</v>
       </c>
       <c r="P46" s="20">
-        <v>6522</v>
+        <v>6524.89</v>
       </c>
       <c r="Q46" s="8">
-        <v>6528</v>
+        <f t="shared" si="0"/>
+        <v>6557.8190000000004</v>
       </c>
       <c r="R46" s="8">
-        <v>6600</v>
+        <f t="shared" si="1"/>
+        <v>6567.8190000000004</v>
       </c>
       <c r="S46" s="20">
-        <v>6605</v>
+        <v>6593.19</v>
       </c>
       <c r="T46" s="20">
-        <v>6660</v>
+        <v>6616.05</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>439</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -4670,50 +4699,39 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>15</v>
+        <v>441</v>
       </c>
       <c r="O47" s="20">
-        <v>6497.69</v>
+        <v>6430</v>
       </c>
       <c r="P47" s="20">
-        <v>6524.89</v>
+        <v>6522</v>
       </c>
       <c r="Q47" s="8">
-        <f t="shared" si="0"/>
-        <v>6578.46</v>
+        <v>6528</v>
       </c>
       <c r="R47" s="8">
-        <f t="shared" si="1"/>
-        <v>6588.46</v>
+        <v>6600</v>
       </c>
       <c r="S47" s="20">
-        <v>6593.19</v>
+        <v>6605</v>
       </c>
       <c r="T47" s="20">
-        <v>6616.05</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -4722,50 +4740,50 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O48" s="20">
-        <v>6630.93</v>
+        <v>6497.69</v>
       </c>
       <c r="P48" s="20">
-        <v>6658.07</v>
+        <v>6524.89</v>
       </c>
       <c r="Q48" s="8">
         <f t="shared" si="0"/>
-        <v>6673</v>
+        <v>6578.46</v>
       </c>
       <c r="R48" s="8">
         <f t="shared" si="1"/>
-        <v>6683</v>
+        <v>6588.46</v>
       </c>
       <c r="S48" s="20">
-        <v>6690.63</v>
+        <v>6593.19</v>
       </c>
       <c r="T48" s="20">
-        <v>6706.63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+        <v>6616.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4774,50 +4792,50 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O49" s="20">
-        <v>6685.68</v>
+        <v>6630.93</v>
       </c>
       <c r="P49" s="20">
-        <v>6705.3</v>
+        <v>6658.07</v>
       </c>
       <c r="Q49" s="8">
         <f t="shared" si="0"/>
-        <v>6711.44</v>
+        <v>6673</v>
       </c>
       <c r="R49" s="8">
         <f t="shared" si="1"/>
-        <v>6721.44</v>
+        <v>6683</v>
       </c>
       <c r="S49" s="20">
-        <v>6739.11</v>
+        <v>6690.63</v>
       </c>
       <c r="T49" s="20">
-        <v>6764.16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+        <v>6706.63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -4826,50 +4844,50 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="K50" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O50" s="20">
-        <v>6685.59</v>
+        <v>6685.68</v>
       </c>
       <c r="P50" s="20">
-        <v>6705.49</v>
+        <v>6705.3</v>
       </c>
       <c r="Q50" s="8">
         <f t="shared" si="0"/>
-        <v>6725.81</v>
+        <v>6711.44</v>
       </c>
       <c r="R50" s="8">
         <f t="shared" si="1"/>
-        <v>6735.81</v>
+        <v>6721.44</v>
       </c>
       <c r="S50" s="20">
-        <v>6741.39</v>
+        <v>6739.11</v>
       </c>
       <c r="T50" s="20">
-        <v>6768.52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+        <v>6764.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -4878,50 +4896,50 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O51" s="20">
-        <v>7028.33</v>
+        <v>6685.59</v>
       </c>
       <c r="P51" s="20">
-        <v>7050.74</v>
+        <v>6705.49</v>
       </c>
       <c r="Q51" s="8">
         <f t="shared" si="0"/>
-        <v>7060</v>
+        <v>6725.81</v>
       </c>
       <c r="R51" s="8">
         <f t="shared" si="1"/>
-        <v>7070</v>
+        <v>6735.81</v>
       </c>
       <c r="S51" s="20">
-        <v>7072.58</v>
+        <v>6741.39</v>
       </c>
       <c r="T51" s="20">
-        <v>7098.74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+        <v>6768.52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -4933,108 +4951,114 @@
         <v>37</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O52" s="20">
-        <v>7237.95</v>
+        <v>7028.33</v>
       </c>
       <c r="P52" s="20">
-        <v>7258.27</v>
+        <v>7050.74</v>
       </c>
       <c r="Q52" s="8">
         <f t="shared" si="0"/>
-        <v>7276</v>
+        <v>7060</v>
       </c>
       <c r="R52" s="8">
         <f t="shared" si="1"/>
-        <v>7286</v>
+        <v>7070</v>
       </c>
       <c r="S52" s="20">
-        <v>7291.21</v>
+        <v>7072.58</v>
       </c>
       <c r="T52" s="20">
-        <v>7310.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+        <v>7098.74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="1">
-        <v>7135.79</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
       <c r="I53" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J53" s="1">
-        <v>7136</v>
+        <v>37</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O53" s="20">
-        <v>7094.32</v>
+        <v>7237.95</v>
       </c>
       <c r="P53" s="20">
-        <v>7118.25</v>
+        <v>7258.27</v>
       </c>
       <c r="Q53" s="8">
         <f t="shared" si="0"/>
-        <v>7130.79</v>
+        <v>7276</v>
       </c>
       <c r="R53" s="8">
         <f t="shared" si="1"/>
-        <v>7140.79</v>
+        <v>7286</v>
       </c>
       <c r="S53" s="20">
-        <v>7144.27</v>
+        <v>7291.21</v>
       </c>
       <c r="T53" s="20">
-        <v>7172.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+        <v>7310.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>356</v>
+        <v>157</v>
       </c>
       <c r="B54" s="1">
-        <v>7170</v>
+        <v>7135.79</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="J54" s="1">
-        <v>7170</v>
+        <v>7136</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>357</v>
+        <v>159</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>15</v>
@@ -5046,81 +5070,72 @@
         <v>7118.25</v>
       </c>
       <c r="Q54" s="8">
-        <f>B54 -3</f>
-        <v>7167</v>
+        <f t="shared" si="0"/>
+        <v>7130.79</v>
       </c>
       <c r="R54" s="8">
-        <f>B54+3</f>
-        <v>7173</v>
+        <f t="shared" si="1"/>
+        <v>7140.79</v>
       </c>
       <c r="S54" s="20">
-        <v>7179</v>
+        <v>7144.27</v>
       </c>
       <c r="T54" s="20">
-        <v>7205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+        <v>7172.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="B55" s="1">
+        <v>7170</v>
+      </c>
       <c r="I55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>164</v>
+        <v>70</v>
+      </c>
+      <c r="J55" s="1">
+        <v>7170</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>165</v>
+        <v>356</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O55" s="20">
-        <v>7294.85</v>
+        <v>7094.32</v>
       </c>
       <c r="P55" s="20">
-        <v>7310</v>
+        <v>7118.25</v>
       </c>
       <c r="Q55" s="8">
-        <f t="shared" si="0"/>
-        <v>7314</v>
+        <f>B55 -3</f>
+        <v>7167</v>
       </c>
       <c r="R55" s="8">
-        <f t="shared" si="1"/>
-        <v>7324</v>
+        <f>B55+3</f>
+        <v>7173</v>
       </c>
       <c r="S55" s="20">
-        <v>7338.59</v>
+        <v>7179</v>
       </c>
       <c r="T55" s="20">
-        <v>7365.31</v>
-      </c>
-      <c r="AE55" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+        <v>7205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5131,30 +5146,51 @@
       <c r="I56" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="J56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="L56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>441</v>
+        <v>15</v>
+      </c>
+      <c r="O56" s="20">
+        <v>7294.85</v>
+      </c>
+      <c r="P56" s="20">
+        <v>7310</v>
       </c>
       <c r="Q56" s="8">
         <f t="shared" si="0"/>
-        <v>7319.5</v>
+        <v>7314</v>
       </c>
       <c r="R56" s="8">
         <f t="shared" si="1"/>
-        <v>7329.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+        <v>7324</v>
+      </c>
+      <c r="S56" s="20">
+        <v>7338.59</v>
+      </c>
+      <c r="T56" s="20">
+        <v>7365.31</v>
+      </c>
+      <c r="AF56" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5165,159 +5201,131 @@
       <c r="I57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="L57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O57" s="20">
-        <v>7293.88</v>
-      </c>
-      <c r="P57" s="20">
-        <v>7312.11</v>
+        <v>437</v>
       </c>
       <c r="Q57" s="8">
         <f t="shared" si="0"/>
-        <v>7325</v>
+        <v>7319.5</v>
       </c>
       <c r="R57" s="8">
         <f t="shared" si="1"/>
-        <v>7335</v>
-      </c>
-      <c r="S57" s="20">
-        <v>7343</v>
-      </c>
-      <c r="T57" s="20">
-        <v>7370.56</v>
-      </c>
-      <c r="AE57" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+        <v>7329.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" s="1">
-        <v>7751</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J58" s="1">
-        <v>7751</v>
+        <v>18</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>364</v>
+        <v>174</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O58" s="20">
-        <v>7708.39</v>
+        <v>7293.88</v>
       </c>
       <c r="P58" s="20">
-        <v>7733.28</v>
+        <v>7312.11</v>
       </c>
       <c r="Q58" s="8">
         <f t="shared" si="0"/>
-        <v>7746</v>
+        <v>7325</v>
       </c>
       <c r="R58" s="8">
         <f t="shared" si="1"/>
-        <v>7756</v>
+        <v>7335</v>
       </c>
       <c r="S58" s="20">
-        <v>7763.17</v>
+        <v>7343</v>
       </c>
       <c r="T58" s="20">
-        <v>7779.58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7370.56</v>
+      </c>
+      <c r="AF58" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="B59" s="1">
+        <v>7751</v>
+      </c>
       <c r="I59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="J59" s="1">
+        <v>7751</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>182</v>
+        <v>453</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O59" s="20">
-        <v>7774.16</v>
+        <v>7708.39</v>
       </c>
       <c r="P59" s="20">
-        <v>7798.16</v>
+        <v>7733.28</v>
       </c>
       <c r="Q59" s="8">
         <f t="shared" si="0"/>
-        <v>7811.16</v>
+        <v>7746</v>
       </c>
       <c r="R59" s="8">
         <f t="shared" si="1"/>
-        <v>7821.16</v>
+        <v>7756</v>
       </c>
       <c r="S59" s="20">
-        <v>7828.16</v>
+        <v>7763.17</v>
       </c>
       <c r="T59" s="20">
-        <v>7845.16</v>
-      </c>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="20"/>
-      <c r="AC59" s="20"/>
-      <c r="AD59" s="20"/>
-    </row>
-    <row r="60" spans="1:31" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>183</v>
+        <v>7779.58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5326,42 +5334,42 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J60" s="4">
-        <v>8286.43</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>185</v>
+        <v>37</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O60" s="20">
-        <v>8252</v>
+        <v>7774.16</v>
       </c>
       <c r="P60" s="20">
-        <v>8280</v>
+        <v>7798.16</v>
       </c>
       <c r="Q60" s="8">
         <f t="shared" si="0"/>
-        <v>8281.43</v>
+        <v>7811.16</v>
       </c>
       <c r="R60" s="8">
         <f t="shared" si="1"/>
-        <v>8291.43</v>
+        <v>7821.16</v>
       </c>
       <c r="S60" s="20">
-        <v>8510</v>
+        <v>7828.16</v>
       </c>
       <c r="T60" s="20">
-        <v>8535</v>
+        <v>7845.16</v>
       </c>
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
@@ -5373,13 +5381,14 @@
       <c r="AB60" s="20"/>
       <c r="AC60" s="20"/>
       <c r="AD60" s="20"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE60" s="20"/>
+    </row>
+    <row r="61" spans="1:32" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5390,17 +5399,17 @@
       <c r="I61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J61" s="5">
-        <v>8292.31</v>
+      <c r="J61" s="4">
+        <v>8286.43</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>15</v>
@@ -5413,11 +5422,11 @@
       </c>
       <c r="Q61" s="8">
         <f t="shared" si="0"/>
-        <v>8287.31</v>
+        <v>8281.43</v>
       </c>
       <c r="R61" s="8">
         <f t="shared" si="1"/>
-        <v>8297.31</v>
+        <v>8291.43</v>
       </c>
       <c r="S61" s="20">
         <v>8510</v>
@@ -5425,13 +5434,24 @@
       <c r="T61" s="20">
         <v>8535</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20"/>
+      <c r="AE61" s="20"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5443,16 +5463,16 @@
         <v>10</v>
       </c>
       <c r="J62" s="5">
-        <v>8298.84</v>
+        <v>8292.31</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>15</v>
@@ -5465,11 +5485,11 @@
       </c>
       <c r="Q62" s="8">
         <f t="shared" si="0"/>
-        <v>8293.84</v>
+        <v>8287.31</v>
       </c>
       <c r="R62" s="8">
         <f t="shared" si="1"/>
-        <v>8303.84</v>
+        <v>8297.31</v>
       </c>
       <c r="S62" s="20">
         <v>8510</v>
@@ -5478,27 +5498,33 @@
         <v>8535</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" s="1">
-        <v>8306.2199999999993</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J63" s="5">
-        <v>8306.2199999999993</v>
+        <v>8298.84</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>15</v>
@@ -5511,11 +5537,11 @@
       </c>
       <c r="Q63" s="8">
         <f t="shared" si="0"/>
-        <v>8301.2199999999993</v>
+        <v>8293.84</v>
       </c>
       <c r="R63" s="8">
         <f t="shared" si="1"/>
-        <v>8311.2199999999993</v>
+        <v>8303.84</v>
       </c>
       <c r="S63" s="20">
         <v>8510</v>
@@ -5524,33 +5550,27 @@
         <v>8535</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B64" s="1">
+        <v>8306.2199999999993</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J64" s="5">
-        <v>8314.26</v>
+        <v>8306.2199999999993</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>15</v>
@@ -5563,11 +5583,11 @@
       </c>
       <c r="Q64" s="8">
         <f t="shared" si="0"/>
-        <v>8309.26</v>
+        <v>8301.2199999999993</v>
       </c>
       <c r="R64" s="8">
         <f t="shared" si="1"/>
-        <v>8319.26</v>
+        <v>8311.2199999999993</v>
       </c>
       <c r="S64" s="20">
         <v>8510</v>
@@ -5578,10 +5598,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5593,16 +5613,16 @@
         <v>10</v>
       </c>
       <c r="J65" s="5">
-        <v>8323.43</v>
+        <v>8314.26</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>15</v>
@@ -5615,11 +5635,11 @@
       </c>
       <c r="Q65" s="8">
         <f t="shared" si="0"/>
-        <v>8318.43</v>
+        <v>8309.26</v>
       </c>
       <c r="R65" s="8">
         <f t="shared" si="1"/>
-        <v>8328.43</v>
+        <v>8319.26</v>
       </c>
       <c r="S65" s="20">
         <v>8510</v>
@@ -5630,10 +5650,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5645,16 +5665,16 @@
         <v>10</v>
       </c>
       <c r="J66" s="5">
-        <v>8333.7800000000007</v>
+        <v>8323.43</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>15</v>
@@ -5667,11 +5687,11 @@
       </c>
       <c r="Q66" s="8">
         <f t="shared" si="0"/>
-        <v>8328.7800000000007</v>
+        <v>8318.43</v>
       </c>
       <c r="R66" s="8">
         <f t="shared" si="1"/>
-        <v>8338.7800000000007</v>
+        <v>8328.43</v>
       </c>
       <c r="S66" s="20">
         <v>8510</v>
@@ -5682,10 +5702,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5697,16 +5717,16 @@
         <v>10</v>
       </c>
       <c r="J67" s="5">
-        <v>8345.5499999999993</v>
+        <v>8333.7800000000007</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>15</v>
@@ -5719,11 +5739,11 @@
       </c>
       <c r="Q67" s="8">
         <f t="shared" si="0"/>
-        <v>8340.5499999999993</v>
+        <v>8328.7800000000007</v>
       </c>
       <c r="R67" s="8">
         <f t="shared" si="1"/>
-        <v>8350.5499999999993</v>
+        <v>8338.7800000000007</v>
       </c>
       <c r="S67" s="20">
         <v>8510</v>
@@ -5734,10 +5754,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5749,16 +5769,16 @@
         <v>10</v>
       </c>
       <c r="J68" s="5">
-        <v>8359.01</v>
+        <v>8345.5499999999993</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>15</v>
@@ -5771,11 +5791,11 @@
       </c>
       <c r="Q68" s="8">
         <f t="shared" si="0"/>
-        <v>8354.01</v>
+        <v>8340.5499999999993</v>
       </c>
       <c r="R68" s="8">
         <f t="shared" si="1"/>
-        <v>8364.01</v>
+        <v>8350.5499999999993</v>
       </c>
       <c r="S68" s="20">
         <v>8510</v>
@@ -5786,10 +5806,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5801,16 +5821,16 @@
         <v>10</v>
       </c>
       <c r="J69" s="5">
-        <v>8374.48</v>
+        <v>8359.01</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>15</v>
@@ -5823,11 +5843,11 @@
       </c>
       <c r="Q69" s="8">
         <f t="shared" si="0"/>
-        <v>8369.48</v>
+        <v>8354.01</v>
       </c>
       <c r="R69" s="8">
         <f t="shared" si="1"/>
-        <v>8379.48</v>
+        <v>8364.01</v>
       </c>
       <c r="S69" s="20">
         <v>8510</v>
@@ -5838,10 +5858,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5853,47 +5873,47 @@
         <v>10</v>
       </c>
       <c r="J70" s="5">
-        <v>8392.4</v>
+        <v>8374.48</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O70" s="20">
-        <v>8376.49</v>
+        <v>8252</v>
       </c>
       <c r="P70" s="20">
-        <v>8386.7800000000007</v>
+        <v>8280</v>
       </c>
       <c r="Q70" s="8">
         <f t="shared" si="0"/>
-        <v>8387.4</v>
+        <v>8369.48</v>
       </c>
       <c r="R70" s="8">
         <f t="shared" si="1"/>
-        <v>8397.4</v>
+        <v>8379.48</v>
       </c>
       <c r="S70" s="20">
-        <v>8397.76</v>
+        <v>8510</v>
       </c>
       <c r="T70" s="20">
-        <v>8410.83</v>
+        <v>8535</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -5905,47 +5925,47 @@
         <v>10</v>
       </c>
       <c r="J71" s="5">
-        <v>8413.32</v>
+        <v>8392.4</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O71" s="20">
-        <v>8396.9500000000007</v>
+        <v>8376.49</v>
       </c>
       <c r="P71" s="20">
-        <v>8408.07</v>
+        <v>8386.7800000000007</v>
       </c>
       <c r="Q71" s="8">
         <f t="shared" si="0"/>
-        <v>8408.32</v>
+        <v>8387.4</v>
       </c>
       <c r="R71" s="8">
         <f t="shared" si="1"/>
-        <v>8418.32</v>
+        <v>8397.4</v>
       </c>
       <c r="S71" s="20">
-        <v>8419.89</v>
+        <v>8397.76</v>
       </c>
       <c r="T71" s="20">
-        <v>8432.82</v>
+        <v>8410.83</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -5957,47 +5977,47 @@
         <v>10</v>
       </c>
       <c r="J72" s="5">
-        <v>8437.9599999999991</v>
+        <v>8413.32</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O72" s="20">
-        <v>8396.91</v>
+        <v>8396.9500000000007</v>
       </c>
       <c r="P72" s="20">
-        <v>8408.32</v>
+        <v>8408.07</v>
       </c>
       <c r="Q72" s="8">
         <f t="shared" si="0"/>
-        <v>8432.9599999999991</v>
+        <v>8408.32</v>
       </c>
       <c r="R72" s="8">
         <f t="shared" si="1"/>
-        <v>8442.9599999999991</v>
+        <v>8418.32</v>
       </c>
       <c r="S72" s="20">
-        <v>8472.83</v>
+        <v>8419.89</v>
       </c>
       <c r="T72" s="20">
-        <v>8493.9599999999991</v>
+        <v>8432.82</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>359</v>
+      <c r="A73" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -6006,50 +6026,50 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>362</v>
+        <v>10</v>
+      </c>
+      <c r="J73" s="5">
+        <v>8437.9599999999991</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O73" s="20">
-        <v>8395.74</v>
+        <v>8396.91</v>
       </c>
       <c r="P73" s="20">
-        <v>8409.3700000000008</v>
+        <v>8408.32</v>
       </c>
       <c r="Q73" s="8">
-        <f t="shared" ref="Q73" si="2">B73 -5</f>
-        <v>8441</v>
+        <f t="shared" si="0"/>
+        <v>8432.9599999999991</v>
       </c>
       <c r="R73" s="8">
-        <f t="shared" ref="R73" si="3">B73+5</f>
-        <v>8451</v>
+        <f t="shared" si="1"/>
+        <v>8442.9599999999991</v>
       </c>
       <c r="S73" s="20">
-        <v>8472.6299999999992</v>
+        <v>8472.83</v>
       </c>
       <c r="T73" s="20">
-        <v>8493.76</v>
+        <v>8493.9599999999991</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>234</v>
+      <c r="A74" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>235</v>
+        <v>360</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -6058,50 +6078,50 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J74" s="5">
-        <v>8467.26</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>236</v>
+        <v>37</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>237</v>
+        <v>362</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O74" s="20">
-        <v>8449.7099999999991</v>
+        <v>8395.74</v>
       </c>
       <c r="P74" s="20">
-        <v>8459.58</v>
+        <v>8409.3700000000008</v>
       </c>
       <c r="Q74" s="8">
-        <f t="shared" si="0"/>
-        <v>8462.26</v>
+        <f t="shared" ref="Q74" si="2">B74 -5</f>
+        <v>8441</v>
       </c>
       <c r="R74" s="8">
-        <f t="shared" si="1"/>
-        <v>8472.26</v>
+        <f t="shared" ref="R74" si="3">B74+5</f>
+        <v>8451</v>
       </c>
       <c r="S74" s="20">
-        <v>8472.9500000000007</v>
+        <v>8472.6299999999992</v>
       </c>
       <c r="T74" s="20">
-        <v>8495.33</v>
+        <v>8493.76</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -6113,47 +6133,47 @@
         <v>10</v>
       </c>
       <c r="J75" s="5">
-        <v>8502.49</v>
+        <v>8467.26</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O75" s="20">
-        <v>8473.73</v>
+        <v>8449.7099999999991</v>
       </c>
       <c r="P75" s="20">
-        <v>8491.3799999999992</v>
+        <v>8459.58</v>
       </c>
       <c r="Q75" s="8">
         <f t="shared" si="0"/>
-        <v>8497.49</v>
+        <v>8462.26</v>
       </c>
       <c r="R75" s="8">
         <f t="shared" si="1"/>
-        <v>8507.49</v>
+        <v>8472.26</v>
       </c>
       <c r="S75" s="20">
-        <v>8510.7099999999991</v>
+        <v>8472.9500000000007</v>
       </c>
       <c r="T75" s="20">
-        <v>8534.48</v>
+        <v>8495.33</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -6165,47 +6185,47 @@
         <v>10</v>
       </c>
       <c r="J76" s="5">
-        <v>8545.3799999999992</v>
+        <v>8502.49</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O76" s="20">
-        <v>8514.07</v>
+        <v>8473.73</v>
       </c>
       <c r="P76" s="20">
-        <v>8536.18</v>
+        <v>8491.3799999999992</v>
       </c>
       <c r="Q76" s="8">
         <f t="shared" si="0"/>
-        <v>8540.3799999999992</v>
+        <v>8497.49</v>
       </c>
       <c r="R76" s="8">
         <f t="shared" si="1"/>
-        <v>8550.3799999999992</v>
+        <v>8507.49</v>
       </c>
       <c r="S76" s="20">
-        <v>8555.2199999999993</v>
+        <v>8510.7099999999991</v>
       </c>
       <c r="T76" s="20">
-        <v>8574.9699999999993</v>
+        <v>8534.48</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -6217,47 +6237,47 @@
         <v>10</v>
       </c>
       <c r="J77" s="5">
-        <v>8598.39</v>
+        <v>8545.3799999999992</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O77" s="20">
-        <v>8554.86</v>
+        <v>8514.07</v>
       </c>
       <c r="P77" s="20">
-        <v>8572.52</v>
+        <v>8536.18</v>
       </c>
       <c r="Q77" s="8">
         <f t="shared" si="0"/>
-        <v>8593.39</v>
+        <v>8540.3799999999992</v>
       </c>
       <c r="R77" s="8">
         <f t="shared" si="1"/>
-        <v>8603.39</v>
+        <v>8550.3799999999992</v>
       </c>
       <c r="S77" s="20">
-        <v>8607.11</v>
+        <v>8555.2199999999993</v>
       </c>
       <c r="T77" s="20">
-        <v>8622.34</v>
+        <v>8574.9699999999993</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -6269,47 +6289,47 @@
         <v>10</v>
       </c>
       <c r="J78" s="5">
-        <v>8665.02</v>
+        <v>8598.39</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O78" s="20">
-        <v>8634.64</v>
+        <v>8554.86</v>
       </c>
       <c r="P78" s="20">
-        <v>8656.6</v>
+        <v>8572.52</v>
       </c>
       <c r="Q78" s="8">
         <f t="shared" si="0"/>
-        <v>8660.02</v>
+        <v>8593.39</v>
       </c>
       <c r="R78" s="8">
         <f t="shared" si="1"/>
-        <v>8670.02</v>
+        <v>8603.39</v>
       </c>
       <c r="S78" s="20">
-        <v>8684.01</v>
+        <v>8607.11</v>
       </c>
       <c r="T78" s="20">
-        <v>8699.83</v>
+        <v>8622.34</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -6321,47 +6341,47 @@
         <v>10</v>
       </c>
       <c r="J79" s="5">
-        <v>8750.48</v>
+        <v>8665.02</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O79" s="20">
-        <v>8689.66</v>
+        <v>8634.64</v>
       </c>
       <c r="P79" s="20">
-        <v>8714.68</v>
+        <v>8656.6</v>
       </c>
       <c r="Q79" s="8">
         <f t="shared" si="0"/>
-        <v>8745.48</v>
+        <v>8660.02</v>
       </c>
       <c r="R79" s="8">
         <f t="shared" si="1"/>
-        <v>8755.48</v>
+        <v>8670.02</v>
       </c>
       <c r="S79" s="20">
-        <v>8757.7800000000007</v>
+        <v>8684.01</v>
       </c>
       <c r="T79" s="20">
-        <v>8775.58</v>
+        <v>8699.83</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -6373,47 +6393,47 @@
         <v>10</v>
       </c>
       <c r="J80" s="5">
-        <v>8862.7900000000009</v>
+        <v>8750.48</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O80" s="20">
-        <v>8815.86</v>
+        <v>8689.66</v>
       </c>
       <c r="P80" s="20">
-        <v>8836.7099999999991</v>
+        <v>8714.68</v>
       </c>
       <c r="Q80" s="8">
         <f t="shared" si="0"/>
-        <v>8857.7900000000009</v>
+        <v>8745.48</v>
       </c>
       <c r="R80" s="8">
         <f t="shared" si="1"/>
-        <v>8867.7900000000009</v>
+        <v>8755.48</v>
       </c>
       <c r="S80" s="20">
-        <v>8884.82</v>
+        <v>8757.7800000000007</v>
       </c>
       <c r="T80" s="20">
-        <v>8909.7000000000007</v>
+        <v>8775.58</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -6425,47 +6445,47 @@
         <v>10</v>
       </c>
       <c r="J81" s="5">
-        <v>9014.91</v>
+        <v>8862.7900000000009</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O81" s="20">
-        <v>8975.34</v>
+        <v>8815.86</v>
       </c>
       <c r="P81" s="20">
-        <v>9002.0300000000007</v>
+        <v>8836.7099999999991</v>
       </c>
       <c r="Q81" s="8">
         <f t="shared" si="0"/>
-        <v>9009.91</v>
+        <v>8857.7900000000009</v>
       </c>
       <c r="R81" s="8">
         <f t="shared" si="1"/>
-        <v>9019.91</v>
+        <v>8867.7900000000009</v>
       </c>
       <c r="S81" s="20">
-        <v>9023.58</v>
+        <v>8884.82</v>
       </c>
       <c r="T81" s="20">
-        <v>9052.92</v>
+        <v>8909.7000000000007</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>266</v>
+      <c r="A82" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -6474,50 +6494,50 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>269</v>
+        <v>10</v>
+      </c>
+      <c r="J82" s="5">
+        <v>9014.91</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O82" s="20">
-        <v>9027.06</v>
+        <v>8975.34</v>
       </c>
       <c r="P82" s="20">
-        <v>9056.26</v>
+        <v>9002.0300000000007</v>
       </c>
       <c r="Q82" s="8">
         <f t="shared" si="0"/>
-        <v>9063.6</v>
+        <v>9009.91</v>
       </c>
       <c r="R82" s="8">
         <f t="shared" si="1"/>
-        <v>9073.6</v>
+        <v>9019.91</v>
       </c>
       <c r="S82" s="20">
-        <v>9077.67</v>
+        <v>9023.58</v>
       </c>
       <c r="T82" s="20">
-        <v>9102.9699999999993</v>
+        <v>9052.92</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -6526,50 +6546,50 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="1" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O83" s="20">
-        <v>9189.73</v>
+        <v>9027.06</v>
       </c>
       <c r="P83" s="20">
-        <v>9216.01</v>
+        <v>9056.26</v>
       </c>
       <c r="Q83" s="8">
         <f t="shared" si="0"/>
-        <v>9224</v>
+        <v>9063.6</v>
       </c>
       <c r="R83" s="8">
         <f t="shared" si="1"/>
-        <v>9234</v>
+        <v>9073.6</v>
       </c>
       <c r="S83" s="20">
-        <v>9235.06</v>
+        <v>9077.67</v>
       </c>
       <c r="T83" s="20">
-        <v>9254.11</v>
+        <v>9102.9699999999993</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -6578,50 +6598,50 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="1" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O84" s="20">
-        <v>9486.94</v>
+        <v>9189.73</v>
       </c>
       <c r="P84" s="20">
-        <v>9508.91</v>
+        <v>9216.01</v>
       </c>
       <c r="Q84" s="8">
         <f t="shared" si="0"/>
-        <v>9526.1</v>
+        <v>9224</v>
       </c>
       <c r="R84" s="8">
         <f t="shared" si="1"/>
-        <v>9536.1</v>
+        <v>9234</v>
       </c>
       <c r="S84" s="20">
-        <v>9552.98</v>
+        <v>9235.06</v>
       </c>
       <c r="T84" s="20">
-        <v>9575.92</v>
+        <v>9254.11</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -6630,50 +6650,50 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="1" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O85" s="20">
-        <v>9493.58</v>
+        <v>9486.94</v>
       </c>
       <c r="P85" s="20">
-        <v>9516.5300000000007</v>
+        <v>9508.91</v>
       </c>
       <c r="Q85" s="8">
         <f t="shared" si="0"/>
-        <v>9541</v>
+        <v>9526.1</v>
       </c>
       <c r="R85" s="8">
         <f t="shared" si="1"/>
-        <v>9551</v>
+        <v>9536.1</v>
       </c>
       <c r="S85" s="20">
-        <v>9561.18</v>
+        <v>9552.98</v>
       </c>
       <c r="T85" s="20">
-        <v>9590.01</v>
+        <v>9575.92</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -6682,42 +6702,83 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="O86" s="20">
+        <v>9493.58</v>
+      </c>
+      <c r="P86" s="20">
+        <v>9516.5300000000007</v>
       </c>
       <c r="Q86" s="8">
         <f t="shared" si="0"/>
-        <v>10825</v>
+        <v>9541</v>
       </c>
       <c r="R86" s="8">
         <f t="shared" si="1"/>
+        <v>9551</v>
+      </c>
+      <c r="S86" s="20">
+        <v>9561.18</v>
+      </c>
+      <c r="T86" s="20">
+        <v>9590.01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q87" s="8">
+        <f t="shared" si="0"/>
+        <v>10825</v>
+      </c>
+      <c r="R87" s="8">
+        <f t="shared" si="1"/>
         <v>10835</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="2"/>
-      <c r="M90" s="7"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
@@ -6728,7 +6789,6 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="2"/>
-      <c r="K91" s="8"/>
       <c r="M91" s="7"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -6740,6 +6800,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="2"/>
+      <c r="K92" s="8"/>
       <c r="M92" s="7"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -6941,14 +7002,25 @@
       <c r="M110" s="7"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="M111" s="4"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="2"/>
+      <c r="M111" s="7"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="M112" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -6979,13 +7051,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -6996,7 +7068,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>11</v>
@@ -7016,7 +7088,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>33</v>
@@ -7036,7 +7108,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>40</v>
@@ -7053,10 +7125,10 @@
         <v>48</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>50</v>
@@ -7073,10 +7145,10 @@
         <v>53</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>55</v>
@@ -7090,19 +7162,19 @@
     </row>
     <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>13</v>
@@ -7110,19 +7182,19 @@
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>13</v>
@@ -7130,19 +7202,19 @@
     </row>
     <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>272</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>13</v>
@@ -7150,19 +7222,19 @@
     </row>
     <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>282</v>
-      </c>
       <c r="C10" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>13</v>
@@ -7184,7 +7256,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>33</v>
@@ -7204,7 +7276,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>45</v>
@@ -7224,7 +7296,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>66</v>
@@ -7238,19 +7310,19 @@
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>13</v>
@@ -7258,19 +7330,19 @@
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>13</v>
@@ -7278,19 +7350,19 @@
     </row>
     <row r="17" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>13</v>
@@ -7298,19 +7370,19 @@
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>13</v>
@@ -7318,19 +7390,19 @@
     </row>
     <row r="19" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>287</v>
-      </c>
       <c r="C19" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>301</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>13</v>
@@ -7346,19 +7418,19 @@
     </row>
     <row r="21" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>21</v>
@@ -7366,19 +7438,19 @@
     </row>
     <row r="22" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>21</v>
@@ -7397,19 +7469,19 @@
     </row>
     <row r="24" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>21</v>
@@ -7420,19 +7492,19 @@
     </row>
     <row r="25" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>267</v>
-      </c>
       <c r="C25" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>21</v>
@@ -7444,19 +7516,19 @@
     </row>
     <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>277</v>
-      </c>
       <c r="C26" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>21</v>
@@ -7515,19 +7587,19 @@
     </row>
     <row r="30" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>21</v>
@@ -7535,19 +7607,19 @@
     </row>
     <row r="31" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>174</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>21</v>
@@ -7583,19 +7655,19 @@
     </row>
     <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>21</v>
@@ -7603,19 +7675,19 @@
     </row>
     <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>21</v>
@@ -7631,19 +7703,19 @@
     </row>
     <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>21</v>
@@ -7651,19 +7723,19 @@
     </row>
     <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>21</v>
@@ -7671,19 +7743,19 @@
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="E39" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>21</v>
@@ -7699,19 +7771,19 @@
     </row>
     <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" s="9">
         <v>7135.79</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" s="9">
         <v>7136</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>21</v>
@@ -7719,19 +7791,19 @@
     </row>
     <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B42" s="9">
         <v>7751</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" s="9">
         <v>7751</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>21</v>

--- a/src/specsiser/literature_data/lines_data.xlsx
+++ b/src/specsiser/literature_data/lines_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm Projects\spectra-synthesizer\src\specsiser\literature_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689BF642-C82E-4F77-A2FD-971086F35115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963347BF-3C27-4FE5-965D-9A095ECE580B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4776" yWindow="2172" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="443">
   <si>
     <t>wavelength</t>
   </si>
@@ -105,15 +105,6 @@
     <t>$3726\,[OII]$</t>
   </si>
   <si>
-    <t>O2_3726A_b</t>
-  </si>
-  <si>
-    <t>3727.5</t>
-  </si>
-  <si>
-    <t>$3726+3729\,[OII]$</t>
-  </si>
-  <si>
     <t>O2_3729A</t>
   </si>
   <si>
@@ -535,15 +526,6 @@
   </si>
   <si>
     <t>7319A+</t>
-  </si>
-  <si>
-    <t>O2_7319A_b</t>
-  </si>
-  <si>
-    <t>7324.5</t>
-  </si>
-  <si>
-    <t>$7319+7330\,[OII]$</t>
   </si>
   <si>
     <t>O2_7330A</t>
@@ -1723,21 +1705,6 @@
   </si>
   <si>
     <t>4068.60</t>
-  </si>
-  <si>
-    <t>O2_7319A-O2_7330A</t>
-  </si>
-  <si>
-    <t>O2_3726A-O2_3729A</t>
-  </si>
-  <si>
-    <t>H1_6563A_b</t>
-  </si>
-  <si>
-    <t>$6548\,[NII]+6563\,H\alpha+6583\,[NII]$</t>
-  </si>
-  <si>
-    <t>H1_6563A-N2_6584A-N2_6548A</t>
   </si>
   <si>
     <t>Ar4_4711A</t>
@@ -2281,30 +2248,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANH112"/>
+  <dimension ref="A1:ANH109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="M49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S58" sqref="S58:T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
     <col min="3" max="8" width="7.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.21875" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="38" style="2" customWidth="1"/>
-    <col min="14" max="14" width="35.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="12.109375" style="20" customWidth="1"/>
     <col min="16" max="16" width="13.21875" style="20" customWidth="1"/>
     <col min="17" max="17" width="14.21875" style="20" customWidth="1"/>
     <col min="18" max="18" width="13.77734375" style="20" customWidth="1"/>
-    <col min="19" max="21" width="12.109375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" style="20" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" style="20" customWidth="1"/>
+    <col min="19" max="20" width="12.109375" style="20" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" style="20" customWidth="1"/>
+    <col min="22" max="23" width="13.6640625" style="20" customWidth="1"/>
     <col min="24" max="24" width="15.21875" style="20" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.109375" style="20" bestFit="1" customWidth="1"/>
@@ -2322,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2358,55 +2325,55 @@
         <v>6</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="T1" s="20" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="U1" s="20" t="s">
-        <v>452</v>
+        <v>371</v>
       </c>
       <c r="V1" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD1" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="W1" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>383</v>
-      </c>
       <c r="AE1" s="20" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>7</v>
@@ -2414,25 +2381,25 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B2" s="1">
         <v>3587.28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
@@ -2458,10 +2425,10 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2470,19 +2437,19 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>15</v>
@@ -2508,10 +2475,10 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2523,16 +2490,16 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>15</v>
@@ -2594,11 +2561,11 @@
         <v>3700</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" ref="Q5:Q87" si="0">B5 -5</f>
+        <f t="shared" ref="Q5:Q84" si="0">B5 -5</f>
         <v>3721.0320000000002</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ref="R5:R87" si="1">B5+5</f>
+        <f t="shared" ref="R5:R84" si="1">B5+5</f>
         <v>3731.0320000000002</v>
       </c>
       <c r="S5" s="20">
@@ -2624,14 +2591,20 @@
       <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>438</v>
+        <v>15</v>
       </c>
       <c r="O6" s="20">
         <v>3665</v>
@@ -2641,11 +2614,11 @@
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="0"/>
-        <v>3722.5</v>
+        <v>3723.8150000000001</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="1"/>
-        <v>3732.5</v>
+        <v>3733.8150000000001</v>
       </c>
       <c r="S6" s="20">
         <v>3845</v>
@@ -2656,10 +2629,10 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>391</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>392</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2668,19 +2641,19 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>393</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>394</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>30</v>
+        <v>395</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>15</v>
@@ -2692,12 +2665,10 @@
         <v>3700</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="0"/>
-        <v>3723.8150000000001</v>
+        <v>3744</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="1"/>
-        <v>3733.8150000000001</v>
+        <v>3758</v>
       </c>
       <c r="S7" s="20">
         <v>3845</v>
@@ -2708,10 +2679,10 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2723,16 +2694,16 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>15</v>
@@ -2744,10 +2715,10 @@
         <v>3700</v>
       </c>
       <c r="Q8" s="8">
-        <v>3744</v>
+        <v>3765</v>
       </c>
       <c r="R8" s="8">
-        <v>3758</v>
+        <v>3778</v>
       </c>
       <c r="S8" s="20">
         <v>3845</v>
@@ -2756,12 +2727,12 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2773,16 +2744,16 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>15</v>
@@ -2794,10 +2765,10 @@
         <v>3700</v>
       </c>
       <c r="Q9" s="8">
-        <v>3765</v>
+        <v>3791</v>
       </c>
       <c r="R9" s="8">
-        <v>3778</v>
+        <v>3806</v>
       </c>
       <c r="S9" s="20">
         <v>3845</v>
@@ -2806,12 +2777,12 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2820,34 +2791,34 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="20">
-        <v>3665</v>
+        <v>3805</v>
       </c>
       <c r="P10" s="20">
-        <v>3700</v>
+        <v>3812</v>
       </c>
       <c r="Q10" s="8">
-        <v>3791</v>
+        <v>3813</v>
       </c>
       <c r="R10" s="8">
-        <v>3806</v>
+        <v>3825</v>
       </c>
       <c r="S10" s="20">
         <v>3845</v>
@@ -2858,10 +2829,10 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>413</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>412</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2870,48 +2841,50 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>415</v>
+        <v>12</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>416</v>
+        <v>14</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O11" s="20">
-        <v>3805</v>
+        <v>3800</v>
       </c>
       <c r="P11" s="20">
-        <v>3812</v>
+        <v>3820</v>
       </c>
       <c r="Q11" s="8">
-        <v>3813</v>
+        <f>B11 -5</f>
+        <v>3830</v>
       </c>
       <c r="R11" s="8">
-        <v>3825</v>
+        <f>B11+5</f>
+        <v>3840</v>
       </c>
       <c r="S11" s="20">
-        <v>3845</v>
+        <v>3905</v>
       </c>
       <c r="T11" s="20">
-        <v>3859</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>357</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>358</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2920,19 +2893,19 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="1" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>14</v>
+        <v>362</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>15</v>
@@ -2945,11 +2918,11 @@
       </c>
       <c r="Q12" s="8">
         <f>B12 -5</f>
-        <v>3830</v>
+        <v>3864</v>
       </c>
       <c r="R12" s="8">
         <f>B12+5</f>
-        <v>3840</v>
+        <v>3874</v>
       </c>
       <c r="S12" s="20">
         <v>3905</v>
@@ -2960,10 +2933,10 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>363</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>364</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2972,19 +2945,19 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>366</v>
+        <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>367</v>
+        <v>31</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>368</v>
+        <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>15</v>
@@ -2996,12 +2969,12 @@
         <v>3820</v>
       </c>
       <c r="Q13" s="8">
-        <f>B13 -5</f>
-        <v>3864</v>
+        <f t="shared" si="0"/>
+        <v>3884</v>
       </c>
       <c r="R13" s="8">
-        <f>B13+5</f>
-        <v>3874</v>
+        <f t="shared" si="1"/>
+        <v>3894</v>
       </c>
       <c r="S13" s="20">
         <v>3905</v>
@@ -3012,10 +2985,10 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3027,47 +3000,47 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O14" s="20">
-        <v>3800</v>
+        <v>3935</v>
       </c>
       <c r="P14" s="20">
-        <v>3820</v>
+        <v>3955</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="0"/>
-        <v>3884</v>
+        <v>3965</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="1"/>
-        <v>3894</v>
+        <v>3975</v>
       </c>
       <c r="S14" s="20">
-        <v>3905</v>
+        <v>3980</v>
       </c>
       <c r="T14" s="20">
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3076,50 +3049,50 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O15" s="20">
-        <v>3935</v>
+        <v>4005</v>
       </c>
       <c r="P15" s="20">
-        <v>3955</v>
+        <v>4015</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="0"/>
-        <v>3965</v>
+        <v>4021</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="1"/>
-        <v>3975</v>
+        <v>4031</v>
       </c>
       <c r="S15" s="20">
-        <v>3980</v>
+        <v>4035</v>
       </c>
       <c r="T15" s="20">
-        <v>3998</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3128,50 +3101,48 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="20">
+        <v>4048</v>
+      </c>
+      <c r="P16" s="20">
+        <v>4063</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>4064</v>
+      </c>
+      <c r="R16" s="8">
+        <v>4074</v>
+      </c>
+      <c r="S16" s="20">
+        <v>4077</v>
+      </c>
+      <c r="T16" s="20">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="20">
-        <v>4005</v>
-      </c>
-      <c r="P16" s="20">
-        <v>4015</v>
-      </c>
-      <c r="Q16" s="8">
-        <f t="shared" si="0"/>
-        <v>4021</v>
-      </c>
-      <c r="R16" s="8">
-        <f t="shared" si="1"/>
-        <v>4031</v>
-      </c>
-      <c r="S16" s="20">
-        <v>4035</v>
-      </c>
-      <c r="T16" s="20">
-        <v>4045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3180,48 +3151,50 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>417</v>
+        <v>47</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>418</v>
+        <v>48</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>419</v>
+        <v>49</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O17" s="20">
-        <v>4048</v>
+        <v>4060</v>
       </c>
       <c r="P17" s="20">
-        <v>4063</v>
+        <v>4085</v>
       </c>
       <c r="Q17" s="8">
-        <v>4064</v>
+        <f t="shared" si="0"/>
+        <v>4097.7420000000002</v>
       </c>
       <c r="R17" s="8">
-        <v>4074</v>
+        <f t="shared" si="1"/>
+        <v>4107.7420000000002</v>
       </c>
       <c r="S17" s="20">
-        <v>4077</v>
+        <v>4115</v>
       </c>
       <c r="T17" s="20">
-        <v>4090</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3233,47 +3206,47 @@
         <v>10</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O18" s="20">
-        <v>4060</v>
+        <v>4318.9399999999996</v>
       </c>
       <c r="P18" s="20">
-        <v>4085</v>
+        <v>4331.79</v>
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="0"/>
-        <v>4097.7420000000002</v>
+        <v>4336.4709999999995</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="1"/>
-        <v>4107.7420000000002</v>
+        <v>4346.4709999999995</v>
       </c>
       <c r="S18" s="20">
-        <v>4115</v>
+        <v>4371.08</v>
       </c>
       <c r="T18" s="20">
-        <v>4130</v>
+        <v>4385.24</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3282,50 +3255,50 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O19" s="20">
-        <v>4318.9399999999996</v>
+        <v>4349.1000000000004</v>
       </c>
       <c r="P19" s="20">
-        <v>4331.79</v>
+        <v>4356.7700000000004</v>
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="0"/>
-        <v>4336.4709999999995</v>
+        <v>4358.21</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="1"/>
-        <v>4346.4709999999995</v>
+        <v>4368.21</v>
       </c>
       <c r="S19" s="20">
-        <v>4371.08</v>
+        <v>4394.32</v>
       </c>
       <c r="T19" s="20">
-        <v>4385.24</v>
+        <v>4413.63</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>424</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>425</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3334,50 +3307,27 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>61</v>
+        <v>426</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>62</v>
+        <v>427</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="20">
-        <v>4349.1000000000004</v>
-      </c>
-      <c r="P20" s="20">
-        <v>4356.7700000000004</v>
-      </c>
-      <c r="Q20" s="8">
-        <f t="shared" si="0"/>
-        <v>4358.21</v>
-      </c>
-      <c r="R20" s="8">
-        <f t="shared" si="1"/>
-        <v>4368.21</v>
-      </c>
-      <c r="S20" s="20">
-        <v>4394.32</v>
-      </c>
-      <c r="T20" s="20">
-        <v>4413.63</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>430</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>431</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3386,27 +3336,50 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>432</v>
+        <v>63</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>433</v>
+        <v>64</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>434</v>
+        <v>65</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="20">
+        <v>4447.3500000000004</v>
+      </c>
+      <c r="P21" s="20">
+        <v>4465.72</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="0"/>
+        <v>4466</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="1"/>
+        <v>4476</v>
+      </c>
+      <c r="S21" s="20">
+        <v>4483.67</v>
+      </c>
+      <c r="T21" s="20">
+        <v>4507.74</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>418</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3415,71 +3388,63 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1" t="s">
-        <v>37</v>
+        <v>315</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>66</v>
+        <v>414</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>67</v>
+        <v>415</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>68</v>
+        <v>416</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O22" s="20">
-        <v>4447.3500000000004</v>
+        <v>4605</v>
       </c>
       <c r="P22" s="20">
-        <v>4465.72</v>
+        <v>4635</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="0"/>
-        <v>4466</v>
+        <v>4650</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="1"/>
-        <v>4476</v>
+        <v>4666</v>
       </c>
       <c r="S22" s="20">
-        <v>4483.67</v>
+        <v>4755</v>
       </c>
       <c r="T22" s="20">
-        <v>4507.74</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4711</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>420</v>
+        <v>67</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4711</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>15</v>
@@ -3491,10 +3456,12 @@
         <v>4635</v>
       </c>
       <c r="Q23" s="8">
-        <v>4650</v>
+        <f>B23 -5</f>
+        <v>4706</v>
       </c>
       <c r="R23" s="8">
-        <v>4666</v>
+        <f>B23+5</f>
+        <v>4716</v>
       </c>
       <c r="S23" s="20">
         <v>4755</v>
@@ -3505,25 +3472,31 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4711</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="1">
-        <v>4711</v>
+        <v>34</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>15</v>
@@ -3535,12 +3508,10 @@
         <v>4635</v>
       </c>
       <c r="Q24" s="8">
-        <f>B24 -5</f>
         <v>4706</v>
       </c>
       <c r="R24" s="8">
-        <f>B24+5</f>
-        <v>4716</v>
+        <v>4720</v>
       </c>
       <c r="S24" s="20">
         <v>4755</v>
@@ -3551,31 +3522,25 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4740</v>
+      </c>
       <c r="I25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>443</v>
+        <v>67</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4740</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>446</v>
+        <v>68</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>15</v>
@@ -3587,10 +3552,12 @@
         <v>4635</v>
       </c>
       <c r="Q25" s="8">
-        <v>4706</v>
+        <f>B25 -5</f>
+        <v>4735</v>
       </c>
       <c r="R25" s="8">
-        <v>4720</v>
+        <f>B25+5</f>
+        <v>4745</v>
       </c>
       <c r="S25" s="20">
         <v>4755</v>
@@ -3603,23 +3570,29 @@
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1">
-        <v>4740</v>
-      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J26" s="1">
-        <v>4740</v>
+        <v>4686</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>449</v>
+        <v>73</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>15</v>
@@ -3631,12 +3604,12 @@
         <v>4635</v>
       </c>
       <c r="Q26" s="8">
-        <f>B26 -5</f>
-        <v>4735</v>
+        <f t="shared" si="0"/>
+        <v>4681</v>
       </c>
       <c r="R26" s="8">
-        <f>B26+5</f>
-        <v>4745</v>
+        <f t="shared" si="1"/>
+        <v>4691</v>
       </c>
       <c r="S26" s="20">
         <v>4755</v>
@@ -3647,10 +3620,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3659,50 +3632,50 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4686</v>
+        <v>10</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O27" s="20">
-        <v>4605</v>
+        <v>4809.8</v>
       </c>
       <c r="P27" s="20">
-        <v>4635</v>
+        <v>4836.1000000000004</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="0"/>
-        <v>4681</v>
+        <v>4856</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="1"/>
-        <v>4691</v>
+        <v>4866</v>
       </c>
       <c r="S27" s="20">
-        <v>4755</v>
+        <v>4884.3900000000003</v>
       </c>
       <c r="T27" s="20">
-        <v>4778</v>
+        <v>4907.63</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3711,50 +3684,50 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O28" s="20">
-        <v>4809.8</v>
+        <v>4887.79</v>
       </c>
       <c r="P28" s="20">
-        <v>4836.1000000000004</v>
+        <v>4912.42</v>
       </c>
       <c r="Q28" s="8">
-        <f t="shared" si="0"/>
-        <v>4856</v>
+        <f>B28 -3</f>
+        <v>4919</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="1"/>
-        <v>4866</v>
+        <f>B28+3</f>
+        <v>4925</v>
       </c>
       <c r="S28" s="20">
-        <v>4884.3900000000003</v>
+        <v>4927.7299999999996</v>
       </c>
       <c r="T28" s="20">
-        <v>4907.63</v>
+        <v>4947.3500000000004</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3763,50 +3736,48 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O29" s="20">
-        <v>4887.79</v>
+        <v>4935.9399999999996</v>
       </c>
       <c r="P29" s="20">
-        <v>4912.42</v>
+        <v>4948.83</v>
       </c>
       <c r="Q29" s="8">
-        <f>B29 -3</f>
-        <v>4919</v>
+        <v>4951.6099999999997</v>
       </c>
       <c r="R29" s="8">
-        <f>B29+3</f>
-        <v>4925</v>
+        <v>4966.5600000000004</v>
       </c>
       <c r="S29" s="20">
-        <v>4927.7299999999996</v>
+        <v>4970.0200000000004</v>
       </c>
       <c r="T29" s="20">
-        <v>4947.3500000000004</v>
+        <v>4981.92</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3815,50 +3786,50 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>85</v>
+        <v>317</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>86</v>
+        <v>318</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O30" s="20">
-        <v>4934.83</v>
+        <v>4969.8500000000004</v>
       </c>
       <c r="P30" s="20">
-        <v>4951.1099999999997</v>
+        <v>4979.18</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="0"/>
-        <v>4953.9110000000001</v>
+        <f>B30 -3</f>
+        <v>4984</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="1"/>
-        <v>4963.9110000000001</v>
+        <f>B30+3</f>
+        <v>4990</v>
       </c>
       <c r="S30" s="20">
-        <v>4964.6099999999997</v>
+        <v>5027.46</v>
       </c>
       <c r="T30" s="20">
-        <v>4982.97</v>
+        <v>5039.1499999999996</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>319</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3867,50 +3838,48 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1" t="s">
-        <v>321</v>
+        <v>57</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>322</v>
+        <v>86</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>323</v>
+        <v>87</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>324</v>
+        <v>88</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O31" s="20">
-        <v>4969.8500000000004</v>
+        <v>4966.75</v>
       </c>
       <c r="P31" s="20">
-        <v>4979.18</v>
+        <v>4982.46</v>
       </c>
       <c r="Q31" s="8">
-        <f>B31 -3</f>
-        <v>4984</v>
+        <v>4997.58</v>
       </c>
       <c r="R31" s="8">
-        <f>B31+3</f>
-        <v>4990</v>
+        <v>5012.72</v>
       </c>
       <c r="S31" s="20">
-        <v>5027.46</v>
+        <v>5024.05</v>
       </c>
       <c r="T31" s="20">
-        <v>5039.1499999999996</v>
+        <v>5040.53</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3919,50 +3888,48 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>89</v>
+        <v>305</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>91</v>
+        <v>307</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O32" s="20">
-        <v>4964.82</v>
+        <v>4966.75</v>
       </c>
       <c r="P32" s="20">
-        <v>4982.21</v>
+        <v>4982.46</v>
       </c>
       <c r="Q32" s="8">
-        <f t="shared" si="0"/>
-        <v>5001.8429999999998</v>
+        <v>5012.72</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="1"/>
-        <v>5011.8429999999998</v>
+        <v>5021.2700000000004</v>
       </c>
       <c r="S32" s="20">
-        <v>5022.43</v>
+        <v>5024.05</v>
       </c>
       <c r="T32" s="20">
-        <v>5041.91</v>
+        <v>5040.53</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3971,50 +3938,50 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O33" s="20">
-        <v>4964.82</v>
+        <v>5028</v>
       </c>
       <c r="P33" s="20">
-        <v>4982.21</v>
+        <v>5034</v>
       </c>
       <c r="Q33" s="8">
         <f>B33 -3</f>
-        <v>5013</v>
+        <v>5045</v>
       </c>
       <c r="R33" s="8">
         <f>B33+3</f>
-        <v>5019</v>
+        <v>5051</v>
       </c>
       <c r="S33" s="20">
-        <v>5022.43</v>
+        <v>5062</v>
       </c>
       <c r="T33" s="20">
-        <v>5041.91</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4023,42 +3990,42 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1" t="s">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O34" s="20">
-        <v>5028</v>
+        <v>5150.2569999999996</v>
       </c>
       <c r="P34" s="20">
-        <v>5034</v>
+        <v>5175.2569999999996</v>
       </c>
       <c r="Q34" s="8">
         <f>B34 -3</f>
-        <v>5045</v>
+        <v>5197.2569999999996</v>
       </c>
       <c r="R34" s="8">
         <f>B34+3</f>
-        <v>5051</v>
+        <v>5203.2569999999996</v>
       </c>
       <c r="S34" s="20">
-        <v>5062</v>
+        <v>5225.2569999999996</v>
       </c>
       <c r="T34" s="20">
-        <v>5073</v>
+        <v>5250.2569999999996</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -4075,50 +4042,50 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O35" s="20">
-        <v>5150.2569999999996</v>
+        <v>5222</v>
       </c>
       <c r="P35" s="20">
-        <v>5175.2569999999996</v>
+        <v>5247</v>
       </c>
       <c r="Q35" s="8">
         <f>B35 -3</f>
-        <v>5197.2569999999996</v>
+        <v>5269</v>
       </c>
       <c r="R35" s="8">
         <f>B35+3</f>
-        <v>5203.2569999999996</v>
+        <v>5275</v>
       </c>
       <c r="S35" s="20">
-        <v>5225.2569999999996</v>
+        <v>5297</v>
       </c>
       <c r="T35" s="20">
-        <v>5250.2569999999996</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4127,50 +4094,50 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O36" s="20">
-        <v>5222</v>
+        <v>5363</v>
       </c>
       <c r="P36" s="20">
-        <v>5247</v>
+        <v>5388</v>
       </c>
       <c r="Q36" s="8">
         <f>B36 -3</f>
-        <v>5269</v>
+        <v>5410</v>
       </c>
       <c r="R36" s="8">
         <f>B36+3</f>
-        <v>5275</v>
+        <v>5416</v>
       </c>
       <c r="S36" s="20">
-        <v>5297</v>
+        <v>5438</v>
       </c>
       <c r="T36" s="20">
-        <v>5322</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>341</v>
+        <v>422</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4179,50 +4146,50 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1" t="s">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>341</v>
+        <v>90</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>342</v>
+        <v>91</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>343</v>
+        <v>92</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O37" s="20">
-        <v>5363</v>
+        <v>5486.09</v>
       </c>
       <c r="P37" s="20">
-        <v>5388</v>
+        <v>5508.22</v>
       </c>
       <c r="Q37" s="8">
-        <f>B37 -3</f>
-        <v>5410</v>
+        <f t="shared" si="0"/>
+        <v>5512.71</v>
       </c>
       <c r="R37" s="8">
-        <f>B37+3</f>
-        <v>5416</v>
+        <f t="shared" si="1"/>
+        <v>5522.71</v>
       </c>
       <c r="S37" s="20">
-        <v>5438</v>
+        <v>5522.13</v>
       </c>
       <c r="T37" s="20">
-        <v>5463</v>
+        <v>5533.13</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4231,7 +4198,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>93</v>
@@ -4256,25 +4223,25 @@
       </c>
       <c r="Q38" s="8">
         <f t="shared" si="0"/>
-        <v>5512.71</v>
+        <v>5532.88</v>
       </c>
       <c r="R38" s="8">
         <f t="shared" si="1"/>
-        <v>5522.71</v>
+        <v>5542.88</v>
       </c>
       <c r="S38" s="20">
-        <v>5522.13</v>
+        <v>5555</v>
       </c>
       <c r="T38" s="20">
-        <v>5533.13</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>427</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>429</v>
+        <v>97</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4283,50 +4250,50 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O39" s="20">
-        <v>5486.09</v>
+        <v>5705</v>
       </c>
       <c r="P39" s="20">
-        <v>5508.22</v>
+        <v>5725</v>
       </c>
       <c r="Q39" s="8">
         <f t="shared" si="0"/>
-        <v>5532.88</v>
+        <v>5750</v>
       </c>
       <c r="R39" s="8">
         <f t="shared" si="1"/>
-        <v>5542.88</v>
+        <v>5760</v>
       </c>
       <c r="S39" s="20">
-        <v>5555</v>
+        <v>5770</v>
       </c>
       <c r="T39" s="20">
-        <v>5575</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4335,50 +4302,50 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O40" s="20">
-        <v>5705</v>
+        <v>5841.87</v>
       </c>
       <c r="P40" s="20">
-        <v>5725</v>
+        <v>5858.01</v>
       </c>
       <c r="Q40" s="8">
         <f t="shared" si="0"/>
-        <v>5750</v>
+        <v>5871</v>
       </c>
       <c r="R40" s="8">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>5881</v>
       </c>
       <c r="S40" s="20">
-        <v>5770</v>
+        <v>5885.01</v>
       </c>
       <c r="T40" s="20">
-        <v>5780</v>
+        <v>5904.21</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4387,50 +4354,50 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1" t="s">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>107</v>
+        <v>341</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>109</v>
+        <v>343</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O41" s="20">
-        <v>5841.87</v>
+        <v>6274.06</v>
       </c>
       <c r="P41" s="20">
-        <v>5858.01</v>
+        <v>6292.71</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="0"/>
-        <v>5871</v>
+        <f>B41 -5</f>
+        <v>6295.3040000000001</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="1"/>
-        <v>5881</v>
+        <f>B41+5</f>
+        <v>6305.3040000000001</v>
       </c>
       <c r="S41" s="20">
-        <v>5885.01</v>
+        <v>6316.5</v>
       </c>
       <c r="T41" s="20">
-        <v>5904.21</v>
+        <v>6331.39</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>344</v>
+        <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>345</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -4439,50 +4406,48 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1" t="s">
-        <v>346</v>
+        <v>109</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>347</v>
+        <v>110</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>348</v>
+        <v>111</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>349</v>
+        <v>112</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O42" s="20">
-        <v>6274.06</v>
+        <v>6276.82</v>
       </c>
       <c r="P42" s="20">
-        <v>6292.71</v>
+        <v>6291.86</v>
       </c>
       <c r="Q42" s="8">
-        <f>B42 -5</f>
-        <v>6295.3040000000001</v>
+        <v>6308.15</v>
       </c>
       <c r="R42" s="8">
-        <f>B42+5</f>
-        <v>6305.3040000000001</v>
+        <v>6317.25</v>
       </c>
       <c r="S42" s="20">
-        <v>6316.5</v>
+        <v>6320.36</v>
       </c>
       <c r="T42" s="20">
-        <v>6331.39</v>
+        <v>6331.97</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4491,50 +4456,50 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1" t="s">
-        <v>112</v>
+        <v>340</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O43" s="20">
-        <v>6275.72</v>
+        <v>6341.48</v>
       </c>
       <c r="P43" s="20">
-        <v>6291.17</v>
+        <v>6356.79</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="0"/>
-        <v>6307.06</v>
+        <f>B43 -5</f>
+        <v>6358.7759999999998</v>
       </c>
       <c r="R43" s="8">
         <f>B43+5</f>
-        <v>6317.06</v>
+        <v>6368.7759999999998</v>
       </c>
       <c r="S43" s="20">
-        <v>6316.08</v>
+        <v>6377.39</v>
       </c>
       <c r="T43" s="20">
-        <v>6331.52</v>
+        <v>6398.81</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>351</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4543,50 +4508,50 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>352</v>
+        <v>115</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>354</v>
+        <v>117</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O44" s="20">
-        <v>6341.48</v>
+        <v>6497.69</v>
       </c>
       <c r="P44" s="20">
-        <v>6356.79</v>
+        <v>6524.89</v>
       </c>
       <c r="Q44" s="8">
-        <f>B44 -5</f>
-        <v>6358.7759999999998</v>
+        <f t="shared" si="0"/>
+        <v>6543.05</v>
       </c>
       <c r="R44" s="8">
-        <f>B44+5</f>
-        <v>6368.7759999999998</v>
+        <f t="shared" si="1"/>
+        <v>6553.05</v>
       </c>
       <c r="S44" s="20">
-        <v>6377.39</v>
+        <v>6593.19</v>
       </c>
       <c r="T44" s="20">
-        <v>6398.81</v>
+        <v>6616.05</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4595,19 +4560,19 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>15</v>
@@ -4620,11 +4585,11 @@
       </c>
       <c r="Q45" s="8">
         <f t="shared" si="0"/>
-        <v>6543.05</v>
+        <v>6557.8190000000004</v>
       </c>
       <c r="R45" s="8">
         <f t="shared" si="1"/>
-        <v>6553.05</v>
+        <v>6567.8190000000004</v>
       </c>
       <c r="S45" s="20">
         <v>6593.19</v>
@@ -4635,10 +4600,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -4647,19 +4612,19 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>15</v>
@@ -4672,11 +4637,11 @@
       </c>
       <c r="Q46" s="8">
         <f t="shared" si="0"/>
-        <v>6557.8190000000004</v>
+        <v>6578.46</v>
       </c>
       <c r="R46" s="8">
         <f t="shared" si="1"/>
-        <v>6567.8190000000004</v>
+        <v>6588.46</v>
       </c>
       <c r="S46" s="20">
         <v>6593.19</v>
@@ -4687,10 +4652,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>439</v>
+        <v>128</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -4699,39 +4664,50 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>440</v>
+        <v>132</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>441</v>
+        <v>15</v>
       </c>
       <c r="O47" s="20">
-        <v>6430</v>
+        <v>6630.93</v>
       </c>
       <c r="P47" s="20">
-        <v>6522</v>
+        <v>6658.07</v>
       </c>
       <c r="Q47" s="8">
-        <v>6528</v>
+        <f t="shared" si="0"/>
+        <v>6673</v>
       </c>
       <c r="R47" s="8">
-        <v>6600</v>
+        <f t="shared" si="1"/>
+        <v>6683</v>
       </c>
       <c r="S47" s="20">
-        <v>6605</v>
+        <v>6690.63</v>
       </c>
       <c r="T47" s="20">
-        <v>6660</v>
+        <v>6706.63</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -4740,50 +4716,50 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O48" s="20">
-        <v>6497.69</v>
+        <v>6685.68</v>
       </c>
       <c r="P48" s="20">
-        <v>6524.89</v>
+        <v>6705.3</v>
       </c>
       <c r="Q48" s="8">
         <f t="shared" si="0"/>
-        <v>6578.46</v>
+        <v>6711.44</v>
       </c>
       <c r="R48" s="8">
         <f t="shared" si="1"/>
-        <v>6588.46</v>
+        <v>6721.44</v>
       </c>
       <c r="S48" s="20">
-        <v>6593.19</v>
+        <v>6739.11</v>
       </c>
       <c r="T48" s="20">
-        <v>6616.05</v>
+        <v>6764.16</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4792,50 +4768,50 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O49" s="20">
-        <v>6630.93</v>
+        <v>6685.59</v>
       </c>
       <c r="P49" s="20">
-        <v>6658.07</v>
+        <v>6705.49</v>
       </c>
       <c r="Q49" s="8">
         <f t="shared" si="0"/>
-        <v>6673</v>
+        <v>6725.81</v>
       </c>
       <c r="R49" s="8">
         <f t="shared" si="1"/>
-        <v>6683</v>
+        <v>6735.81</v>
       </c>
       <c r="S49" s="20">
-        <v>6690.63</v>
+        <v>6741.39</v>
       </c>
       <c r="T49" s="20">
-        <v>6706.63</v>
+        <v>6768.52</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -4844,50 +4820,50 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O50" s="20">
-        <v>6685.68</v>
+        <v>7028.33</v>
       </c>
       <c r="P50" s="20">
-        <v>6705.3</v>
+        <v>7050.74</v>
       </c>
       <c r="Q50" s="8">
         <f t="shared" si="0"/>
-        <v>6711.44</v>
+        <v>7060</v>
       </c>
       <c r="R50" s="8">
         <f t="shared" si="1"/>
-        <v>6721.44</v>
+        <v>7070</v>
       </c>
       <c r="S50" s="20">
-        <v>6739.11</v>
+        <v>7072.58</v>
       </c>
       <c r="T50" s="20">
-        <v>6764.16</v>
+        <v>7098.74</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -4896,301 +4872,298 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O51" s="20">
-        <v>6685.59</v>
+        <v>7237.95</v>
       </c>
       <c r="P51" s="20">
-        <v>6705.49</v>
+        <v>7258.27</v>
       </c>
       <c r="Q51" s="8">
         <f t="shared" si="0"/>
-        <v>6725.81</v>
+        <v>7276</v>
       </c>
       <c r="R51" s="8">
         <f t="shared" si="1"/>
-        <v>6735.81</v>
+        <v>7286</v>
       </c>
       <c r="S51" s="20">
-        <v>6741.39</v>
+        <v>7291.21</v>
       </c>
       <c r="T51" s="20">
-        <v>6768.52</v>
+        <v>7310.7</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7135.79</v>
+      </c>
       <c r="I52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
+      </c>
+      <c r="J52" s="1">
+        <v>7136</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O52" s="20">
-        <v>7028.33</v>
+        <v>7094.32</v>
       </c>
       <c r="P52" s="20">
-        <v>7050.74</v>
+        <v>7118.25</v>
       </c>
       <c r="Q52" s="8">
         <f t="shared" si="0"/>
-        <v>7060</v>
+        <v>7130.79</v>
       </c>
       <c r="R52" s="8">
         <f t="shared" si="1"/>
-        <v>7070</v>
+        <v>7140.79</v>
       </c>
       <c r="S52" s="20">
-        <v>7072.58</v>
+        <v>7144.27</v>
       </c>
       <c r="T52" s="20">
-        <v>7098.74</v>
+        <v>7172.1</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7170</v>
+      </c>
       <c r="I53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>154</v>
+        <v>67</v>
+      </c>
+      <c r="J53" s="1">
+        <v>7170</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>156</v>
+        <v>351</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O53" s="20">
-        <v>7237.95</v>
+        <v>7094.32</v>
       </c>
       <c r="P53" s="20">
-        <v>7258.27</v>
+        <v>7118.25</v>
       </c>
       <c r="Q53" s="8">
-        <f t="shared" si="0"/>
-        <v>7276</v>
+        <f>B53 -3</f>
+        <v>7167</v>
       </c>
       <c r="R53" s="8">
-        <f t="shared" si="1"/>
-        <v>7286</v>
+        <f>B53+3</f>
+        <v>7173</v>
       </c>
       <c r="S53" s="20">
-        <v>7291.21</v>
+        <v>7179</v>
       </c>
       <c r="T53" s="20">
-        <v>7310.7</v>
+        <v>7205</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="1">
-        <v>7135.79</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="I54" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J54" s="1">
-        <v>7136</v>
+        <v>18</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O54" s="20">
-        <v>7094.32</v>
+        <v>7294.85</v>
       </c>
       <c r="P54" s="20">
-        <v>7118.25</v>
+        <v>7310</v>
       </c>
       <c r="Q54" s="8">
         <f t="shared" si="0"/>
-        <v>7130.79</v>
+        <v>7314</v>
       </c>
       <c r="R54" s="8">
         <f t="shared" si="1"/>
-        <v>7140.79</v>
+        <v>7324</v>
       </c>
       <c r="S54" s="20">
-        <v>7144.27</v>
+        <v>7338.59</v>
       </c>
       <c r="T54" s="20">
-        <v>7172.1</v>
+        <v>7365.31</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B55" s="1">
-        <v>7170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55" s="1">
-        <v>7170</v>
+        <v>18</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O55" s="20">
-        <v>7094.32</v>
+        <v>7293.88</v>
       </c>
       <c r="P55" s="20">
-        <v>7118.25</v>
+        <v>7312.11</v>
       </c>
       <c r="Q55" s="8">
-        <f>B55 -3</f>
-        <v>7167</v>
+        <f t="shared" si="0"/>
+        <v>7325</v>
       </c>
       <c r="R55" s="8">
-        <f>B55+3</f>
-        <v>7173</v>
+        <f t="shared" si="1"/>
+        <v>7335</v>
       </c>
       <c r="S55" s="20">
-        <v>7179</v>
+        <v>7343</v>
       </c>
       <c r="T55" s="20">
-        <v>7205</v>
+        <v>7370.56</v>
+      </c>
+      <c r="AF55" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7751</v>
+      </c>
       <c r="I56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
+      </c>
+      <c r="J56" s="1">
+        <v>7751</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>165</v>
+        <v>442</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O56" s="20">
-        <v>7294.85</v>
+        <v>7708.39</v>
       </c>
       <c r="P56" s="20">
-        <v>7310</v>
+        <v>7733.28</v>
       </c>
       <c r="Q56" s="8">
         <f t="shared" si="0"/>
-        <v>7314</v>
+        <v>7746</v>
       </c>
       <c r="R56" s="8">
         <f t="shared" si="1"/>
-        <v>7324</v>
+        <v>7756</v>
       </c>
       <c r="S56" s="20">
-        <v>7338.59</v>
+        <v>7763.17</v>
       </c>
       <c r="T56" s="20">
-        <v>7365.31</v>
-      </c>
-      <c r="AF56" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+        <v>7779.58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5199,32 +5172,61 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>437</v>
+        <v>15</v>
+      </c>
+      <c r="O57" s="20">
+        <v>7774.16</v>
+      </c>
+      <c r="P57" s="20">
+        <v>7798.16</v>
       </c>
       <c r="Q57" s="8">
         <f t="shared" si="0"/>
-        <v>7319.5</v>
+        <v>7811.16</v>
       </c>
       <c r="R57" s="8">
         <f t="shared" si="1"/>
-        <v>7329.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>170</v>
+        <v>7821.16</v>
+      </c>
+      <c r="S57" s="20">
+        <v>7828.16</v>
+      </c>
+      <c r="T57" s="20">
+        <v>7845.16</v>
+      </c>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+    </row>
+    <row r="58" spans="1:32" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5233,99 +5235,113 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>173</v>
+        <v>10</v>
+      </c>
+      <c r="J58" s="4">
+        <v>8286.43</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O58" s="20">
-        <v>7293.88</v>
+        <v>8270</v>
       </c>
       <c r="P58" s="20">
-        <v>7312.11</v>
+        <v>8280</v>
       </c>
       <c r="Q58" s="8">
         <f t="shared" si="0"/>
-        <v>7325</v>
+        <v>8281.43</v>
       </c>
       <c r="R58" s="8">
         <f t="shared" si="1"/>
-        <v>7335</v>
+        <v>8291.43</v>
       </c>
       <c r="S58" s="20">
-        <v>7343</v>
+        <v>8380</v>
       </c>
       <c r="T58" s="20">
-        <v>7370.56</v>
-      </c>
-      <c r="AF58" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>8389</v>
+      </c>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="20"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="1">
-        <v>7751</v>
-      </c>
+      <c r="A59" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J59" s="1">
-        <v>7751</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>177</v>
+        <v>10</v>
+      </c>
+      <c r="J59" s="5">
+        <v>8292.31</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>453</v>
+        <v>183</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O59" s="20">
-        <v>7708.39</v>
+        <v>8270</v>
       </c>
       <c r="P59" s="20">
-        <v>7733.28</v>
+        <v>8280</v>
       </c>
       <c r="Q59" s="8">
         <f t="shared" si="0"/>
-        <v>7746</v>
+        <v>8287.31</v>
       </c>
       <c r="R59" s="8">
         <f t="shared" si="1"/>
-        <v>7756</v>
+        <v>8297.31</v>
       </c>
       <c r="S59" s="20">
-        <v>7763.17</v>
+        <v>8380</v>
       </c>
       <c r="T59" s="20">
-        <v>7779.58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>178</v>
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5334,124 +5350,96 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>180</v>
+        <v>10</v>
+      </c>
+      <c r="J60" s="5">
+        <v>8298.84</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O60" s="20">
-        <v>7774.16</v>
+        <v>8270</v>
       </c>
       <c r="P60" s="20">
-        <v>7798.16</v>
+        <v>8280</v>
       </c>
       <c r="Q60" s="8">
         <f t="shared" si="0"/>
-        <v>7811.16</v>
+        <v>8293.84</v>
       </c>
       <c r="R60" s="8">
         <f t="shared" si="1"/>
-        <v>7821.16</v>
+        <v>8303.84</v>
       </c>
       <c r="S60" s="20">
-        <v>7828.16</v>
+        <v>8380</v>
       </c>
       <c r="T60" s="20">
-        <v>7845.16</v>
-      </c>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="20"/>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="20"/>
-      <c r="AC60" s="20"/>
-      <c r="AD60" s="20"/>
-      <c r="AE60" s="20"/>
-    </row>
-    <row r="61" spans="1:32" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="B61" s="1">
+        <v>8306.2199999999993</v>
+      </c>
       <c r="I61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J61" s="4">
-        <v>8286.43</v>
+      <c r="J61" s="5">
+        <v>8306.2199999999993</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O61" s="20">
-        <v>8252</v>
+        <v>8270</v>
       </c>
       <c r="P61" s="20">
         <v>8280</v>
       </c>
       <c r="Q61" s="8">
         <f t="shared" si="0"/>
-        <v>8281.43</v>
+        <v>8301.2199999999993</v>
       </c>
       <c r="R61" s="8">
         <f t="shared" si="1"/>
-        <v>8291.43</v>
+        <v>8311.2199999999993</v>
       </c>
       <c r="S61" s="20">
-        <v>8510</v>
+        <v>8380</v>
       </c>
       <c r="T61" s="20">
-        <v>8535</v>
-      </c>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="20"/>
-      <c r="AA61" s="20"/>
-      <c r="AB61" s="20"/>
-      <c r="AC61" s="20"/>
-      <c r="AD61" s="20"/>
-      <c r="AE61" s="20"/>
+        <v>8389</v>
+      </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5463,47 +5451,47 @@
         <v>10</v>
       </c>
       <c r="J62" s="5">
-        <v>8292.31</v>
+        <v>8314.26</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O62" s="20">
-        <v>8252</v>
+        <v>8270</v>
       </c>
       <c r="P62" s="20">
         <v>8280</v>
       </c>
       <c r="Q62" s="8">
         <f t="shared" si="0"/>
-        <v>8287.31</v>
+        <v>8309.26</v>
       </c>
       <c r="R62" s="8">
         <f t="shared" si="1"/>
-        <v>8297.31</v>
+        <v>8319.26</v>
       </c>
       <c r="S62" s="20">
-        <v>8510</v>
+        <v>8380</v>
       </c>
       <c r="T62" s="20">
-        <v>8535</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5515,93 +5503,99 @@
         <v>10</v>
       </c>
       <c r="J63" s="5">
-        <v>8298.84</v>
+        <v>8323.43</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O63" s="20">
-        <v>8252</v>
+        <v>8270</v>
       </c>
       <c r="P63" s="20">
         <v>8280</v>
       </c>
       <c r="Q63" s="8">
         <f t="shared" si="0"/>
-        <v>8293.84</v>
+        <v>8318.43</v>
       </c>
       <c r="R63" s="8">
         <f t="shared" si="1"/>
-        <v>8303.84</v>
+        <v>8328.43</v>
       </c>
       <c r="S63" s="20">
-        <v>8510</v>
+        <v>8380</v>
       </c>
       <c r="T63" s="20">
-        <v>8535</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="1">
-        <v>8306.2199999999993</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J64" s="5">
-        <v>8306.2199999999993</v>
+        <v>8333.7800000000007</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O64" s="20">
-        <v>8252</v>
+        <v>8270</v>
       </c>
       <c r="P64" s="20">
         <v>8280</v>
       </c>
       <c r="Q64" s="8">
         <f t="shared" si="0"/>
-        <v>8301.2199999999993</v>
+        <v>8328.7800000000007</v>
       </c>
       <c r="R64" s="8">
         <f t="shared" si="1"/>
-        <v>8311.2199999999993</v>
+        <v>8338.7800000000007</v>
       </c>
       <c r="S64" s="20">
-        <v>8510</v>
+        <v>8380</v>
       </c>
       <c r="T64" s="20">
-        <v>8535</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5613,47 +5607,47 @@
         <v>10</v>
       </c>
       <c r="J65" s="5">
-        <v>8314.26</v>
+        <v>8345.5499999999993</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O65" s="20">
-        <v>8252</v>
+        <v>8270</v>
       </c>
       <c r="P65" s="20">
         <v>8280</v>
       </c>
       <c r="Q65" s="8">
         <f t="shared" si="0"/>
-        <v>8309.26</v>
+        <v>8340.5499999999993</v>
       </c>
       <c r="R65" s="8">
         <f t="shared" si="1"/>
-        <v>8319.26</v>
+        <v>8350.5499999999993</v>
       </c>
       <c r="S65" s="20">
-        <v>8510</v>
+        <v>8380</v>
       </c>
       <c r="T65" s="20">
-        <v>8535</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5665,47 +5659,47 @@
         <v>10</v>
       </c>
       <c r="J66" s="5">
-        <v>8323.43</v>
+        <v>8359.01</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O66" s="20">
-        <v>8252</v>
+        <v>8270</v>
       </c>
       <c r="P66" s="20">
         <v>8280</v>
       </c>
       <c r="Q66" s="8">
         <f t="shared" si="0"/>
-        <v>8318.43</v>
+        <v>8354.01</v>
       </c>
       <c r="R66" s="8">
         <f t="shared" si="1"/>
-        <v>8328.43</v>
+        <v>8364.01</v>
       </c>
       <c r="S66" s="20">
-        <v>8510</v>
+        <v>8380</v>
       </c>
       <c r="T66" s="20">
-        <v>8535</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5717,47 +5711,47 @@
         <v>10</v>
       </c>
       <c r="J67" s="5">
-        <v>8333.7800000000007</v>
+        <v>8374.48</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O67" s="20">
-        <v>8252</v>
+        <v>8270</v>
       </c>
       <c r="P67" s="20">
         <v>8280</v>
       </c>
       <c r="Q67" s="8">
         <f t="shared" si="0"/>
-        <v>8328.7800000000007</v>
+        <v>8369.48</v>
       </c>
       <c r="R67" s="8">
         <f t="shared" si="1"/>
-        <v>8338.7800000000007</v>
+        <v>8379.48</v>
       </c>
       <c r="S67" s="20">
-        <v>8510</v>
+        <v>8380</v>
       </c>
       <c r="T67" s="20">
-        <v>8535</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5769,47 +5763,47 @@
         <v>10</v>
       </c>
       <c r="J68" s="5">
-        <v>8345.5499999999993</v>
+        <v>8392.4</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O68" s="20">
-        <v>8252</v>
+        <v>8376.49</v>
       </c>
       <c r="P68" s="20">
-        <v>8280</v>
+        <v>8386.7800000000007</v>
       </c>
       <c r="Q68" s="8">
         <f t="shared" si="0"/>
-        <v>8340.5499999999993</v>
+        <v>8387.4</v>
       </c>
       <c r="R68" s="8">
         <f t="shared" si="1"/>
-        <v>8350.5499999999993</v>
+        <v>8397.4</v>
       </c>
       <c r="S68" s="20">
-        <v>8510</v>
+        <v>8397.76</v>
       </c>
       <c r="T68" s="20">
-        <v>8535</v>
+        <v>8410.83</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5821,47 +5815,47 @@
         <v>10</v>
       </c>
       <c r="J69" s="5">
-        <v>8359.01</v>
+        <v>8413.32</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O69" s="20">
-        <v>8252</v>
+        <v>8396.9500000000007</v>
       </c>
       <c r="P69" s="20">
-        <v>8280</v>
+        <v>8408.07</v>
       </c>
       <c r="Q69" s="8">
         <f t="shared" si="0"/>
-        <v>8354.01</v>
+        <v>8408.32</v>
       </c>
       <c r="R69" s="8">
         <f t="shared" si="1"/>
-        <v>8364.01</v>
+        <v>8418.32</v>
       </c>
       <c r="S69" s="20">
-        <v>8510</v>
+        <v>8419.89</v>
       </c>
       <c r="T69" s="20">
-        <v>8535</v>
+        <v>8432.82</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5873,47 +5867,47 @@
         <v>10</v>
       </c>
       <c r="J70" s="5">
-        <v>8374.48</v>
+        <v>8437.9599999999991</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O70" s="20">
-        <v>8252</v>
+        <v>8396.91</v>
       </c>
       <c r="P70" s="20">
-        <v>8280</v>
+        <v>8408.32</v>
       </c>
       <c r="Q70" s="8">
         <f t="shared" si="0"/>
-        <v>8369.48</v>
+        <v>8432.9599999999991</v>
       </c>
       <c r="R70" s="8">
         <f t="shared" si="1"/>
-        <v>8379.48</v>
+        <v>8442.9599999999991</v>
       </c>
       <c r="S70" s="20">
-        <v>8510</v>
+        <v>8472.83</v>
       </c>
       <c r="T70" s="20">
-        <v>8535</v>
+        <v>8493.9599999999991</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>221</v>
+      <c r="A71" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>222</v>
+        <v>354</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -5922,50 +5916,50 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J71" s="5">
-        <v>8392.4</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>223</v>
+        <v>34</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O71" s="20">
-        <v>8376.49</v>
+        <v>8395.74</v>
       </c>
       <c r="P71" s="20">
-        <v>8386.7800000000007</v>
+        <v>8409.3700000000008</v>
       </c>
       <c r="Q71" s="8">
-        <f t="shared" si="0"/>
-        <v>8387.4</v>
+        <f t="shared" ref="Q71" si="2">B71 -5</f>
+        <v>8441</v>
       </c>
       <c r="R71" s="8">
-        <f t="shared" si="1"/>
-        <v>8397.4</v>
+        <f t="shared" ref="R71" si="3">B71+5</f>
+        <v>8451</v>
       </c>
       <c r="S71" s="20">
-        <v>8397.76</v>
+        <v>8472.6299999999992</v>
       </c>
       <c r="T71" s="20">
-        <v>8410.83</v>
+        <v>8493.76</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -5977,47 +5971,47 @@
         <v>10</v>
       </c>
       <c r="J72" s="5">
-        <v>8413.32</v>
+        <v>8467.26</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O72" s="20">
-        <v>8396.9500000000007</v>
+        <v>8449.7099999999991</v>
       </c>
       <c r="P72" s="20">
-        <v>8408.07</v>
+        <v>8459.58</v>
       </c>
       <c r="Q72" s="8">
         <f t="shared" si="0"/>
-        <v>8408.32</v>
+        <v>8462.26</v>
       </c>
       <c r="R72" s="8">
         <f t="shared" si="1"/>
-        <v>8418.32</v>
+        <v>8472.26</v>
       </c>
       <c r="S72" s="20">
-        <v>8419.89</v>
+        <v>8472.9500000000007</v>
       </c>
       <c r="T72" s="20">
-        <v>8432.82</v>
+        <v>8495.33</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -6029,47 +6023,47 @@
         <v>10</v>
       </c>
       <c r="J73" s="5">
-        <v>8437.9599999999991</v>
+        <v>8502.49</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O73" s="20">
-        <v>8396.91</v>
+        <v>8473.73</v>
       </c>
       <c r="P73" s="20">
-        <v>8408.32</v>
+        <v>8491.3799999999992</v>
       </c>
       <c r="Q73" s="8">
         <f t="shared" si="0"/>
-        <v>8432.9599999999991</v>
+        <v>8497.49</v>
       </c>
       <c r="R73" s="8">
         <f t="shared" si="1"/>
-        <v>8442.9599999999991</v>
+        <v>8507.49</v>
       </c>
       <c r="S73" s="20">
-        <v>8472.83</v>
+        <v>8510.7099999999991</v>
       </c>
       <c r="T73" s="20">
-        <v>8493.9599999999991</v>
+        <v>8534.48</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>358</v>
+      <c r="A74" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>360</v>
+        <v>236</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -6078,50 +6072,50 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>361</v>
+        <v>10</v>
+      </c>
+      <c r="J74" s="5">
+        <v>8545.3799999999992</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>362</v>
+        <v>238</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O74" s="20">
-        <v>8395.74</v>
+        <v>8514.07</v>
       </c>
       <c r="P74" s="20">
-        <v>8409.3700000000008</v>
+        <v>8536.18</v>
       </c>
       <c r="Q74" s="8">
-        <f t="shared" ref="Q74" si="2">B74 -5</f>
-        <v>8441</v>
+        <f t="shared" si="0"/>
+        <v>8540.3799999999992</v>
       </c>
       <c r="R74" s="8">
-        <f t="shared" ref="R74" si="3">B74+5</f>
-        <v>8451</v>
+        <f t="shared" si="1"/>
+        <v>8550.3799999999992</v>
       </c>
       <c r="S74" s="20">
-        <v>8472.6299999999992</v>
+        <v>8555.2199999999993</v>
       </c>
       <c r="T74" s="20">
-        <v>8493.76</v>
+        <v>8574.9699999999993</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -6133,47 +6127,47 @@
         <v>10</v>
       </c>
       <c r="J75" s="5">
-        <v>8467.26</v>
+        <v>8598.39</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O75" s="20">
-        <v>8449.7099999999991</v>
+        <v>8554.86</v>
       </c>
       <c r="P75" s="20">
-        <v>8459.58</v>
+        <v>8572.52</v>
       </c>
       <c r="Q75" s="8">
         <f t="shared" si="0"/>
-        <v>8462.26</v>
+        <v>8593.39</v>
       </c>
       <c r="R75" s="8">
         <f t="shared" si="1"/>
-        <v>8472.26</v>
+        <v>8603.39</v>
       </c>
       <c r="S75" s="20">
-        <v>8472.9500000000007</v>
+        <v>8607.11</v>
       </c>
       <c r="T75" s="20">
-        <v>8495.33</v>
+        <v>8622.34</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -6185,47 +6179,47 @@
         <v>10</v>
       </c>
       <c r="J76" s="5">
-        <v>8502.49</v>
+        <v>8665.02</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O76" s="20">
-        <v>8473.73</v>
+        <v>8634.64</v>
       </c>
       <c r="P76" s="20">
-        <v>8491.3799999999992</v>
+        <v>8656.6</v>
       </c>
       <c r="Q76" s="8">
         <f t="shared" si="0"/>
-        <v>8497.49</v>
+        <v>8660.02</v>
       </c>
       <c r="R76" s="8">
         <f t="shared" si="1"/>
-        <v>8507.49</v>
+        <v>8670.02</v>
       </c>
       <c r="S76" s="20">
-        <v>8510.7099999999991</v>
+        <v>8684.01</v>
       </c>
       <c r="T76" s="20">
-        <v>8534.48</v>
+        <v>8699.83</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -6237,47 +6231,47 @@
         <v>10</v>
       </c>
       <c r="J77" s="5">
-        <v>8545.3799999999992</v>
+        <v>8750.48</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O77" s="20">
-        <v>8514.07</v>
+        <v>8689.66</v>
       </c>
       <c r="P77" s="20">
-        <v>8536.18</v>
+        <v>8714.68</v>
       </c>
       <c r="Q77" s="8">
         <f t="shared" si="0"/>
-        <v>8540.3799999999992</v>
+        <v>8745.48</v>
       </c>
       <c r="R77" s="8">
         <f t="shared" si="1"/>
-        <v>8550.3799999999992</v>
+        <v>8755.48</v>
       </c>
       <c r="S77" s="20">
-        <v>8555.2199999999993</v>
+        <v>8757.7800000000007</v>
       </c>
       <c r="T77" s="20">
-        <v>8574.9699999999993</v>
+        <v>8775.58</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -6289,47 +6283,47 @@
         <v>10</v>
       </c>
       <c r="J78" s="5">
-        <v>8598.39</v>
+        <v>8862.7900000000009</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O78" s="20">
-        <v>8554.86</v>
+        <v>8815.86</v>
       </c>
       <c r="P78" s="20">
-        <v>8572.52</v>
+        <v>8836.7099999999991</v>
       </c>
       <c r="Q78" s="8">
         <f t="shared" si="0"/>
-        <v>8593.39</v>
+        <v>8857.7900000000009</v>
       </c>
       <c r="R78" s="8">
         <f t="shared" si="1"/>
-        <v>8603.39</v>
+        <v>8867.7900000000009</v>
       </c>
       <c r="S78" s="20">
-        <v>8607.11</v>
+        <v>8884.82</v>
       </c>
       <c r="T78" s="20">
-        <v>8622.34</v>
+        <v>8909.7000000000007</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -6341,47 +6335,47 @@
         <v>10</v>
       </c>
       <c r="J79" s="5">
-        <v>8665.02</v>
+        <v>9014.91</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O79" s="20">
-        <v>8634.64</v>
+        <v>8975.34</v>
       </c>
       <c r="P79" s="20">
-        <v>8656.6</v>
+        <v>9002.0300000000007</v>
       </c>
       <c r="Q79" s="8">
         <f t="shared" si="0"/>
-        <v>8660.02</v>
+        <v>9009.91</v>
       </c>
       <c r="R79" s="8">
         <f t="shared" si="1"/>
-        <v>8670.02</v>
+        <v>9019.91</v>
       </c>
       <c r="S79" s="20">
-        <v>8684.01</v>
+        <v>9023.58</v>
       </c>
       <c r="T79" s="20">
-        <v>8699.83</v>
+        <v>9052.92</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>253</v>
+      <c r="A80" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -6390,50 +6384,50 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J80" s="5">
-        <v>8750.48</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>255</v>
+        <v>109</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O80" s="20">
-        <v>8689.66</v>
+        <v>9027.06</v>
       </c>
       <c r="P80" s="20">
-        <v>8714.68</v>
+        <v>9056.26</v>
       </c>
       <c r="Q80" s="8">
         <f t="shared" si="0"/>
-        <v>8745.48</v>
+        <v>9063.6</v>
       </c>
       <c r="R80" s="8">
         <f t="shared" si="1"/>
-        <v>8755.48</v>
+        <v>9073.6</v>
       </c>
       <c r="S80" s="20">
-        <v>8757.7800000000007</v>
+        <v>9077.67</v>
       </c>
       <c r="T80" s="20">
-        <v>8775.58</v>
+        <v>9102.9699999999993</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>257</v>
+      <c r="A81" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -6444,48 +6438,48 @@
       <c r="I81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="5">
-        <v>8862.7900000000009</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>259</v>
+      <c r="J81" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O81" s="20">
-        <v>8815.86</v>
+        <v>9189.73</v>
       </c>
       <c r="P81" s="20">
-        <v>8836.7099999999991</v>
+        <v>9216.01</v>
       </c>
       <c r="Q81" s="8">
         <f t="shared" si="0"/>
-        <v>8857.7900000000009</v>
+        <v>9224</v>
       </c>
       <c r="R81" s="8">
         <f t="shared" si="1"/>
-        <v>8867.7900000000009</v>
+        <v>9234</v>
       </c>
       <c r="S81" s="20">
-        <v>8884.82</v>
+        <v>9235.06</v>
       </c>
       <c r="T81" s="20">
-        <v>8909.7000000000007</v>
+        <v>9254.11</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>261</v>
+      <c r="A82" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -6494,50 +6488,50 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J82" s="5">
-        <v>9014.91</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>263</v>
+        <v>109</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O82" s="20">
-        <v>8975.34</v>
+        <v>9486.94</v>
       </c>
       <c r="P82" s="20">
-        <v>9002.0300000000007</v>
+        <v>9508.91</v>
       </c>
       <c r="Q82" s="8">
         <f t="shared" si="0"/>
-        <v>9009.91</v>
+        <v>9526.1</v>
       </c>
       <c r="R82" s="8">
         <f t="shared" si="1"/>
-        <v>9019.91</v>
+        <v>9536.1</v>
       </c>
       <c r="S82" s="20">
-        <v>9023.58</v>
+        <v>9552.98</v>
       </c>
       <c r="T82" s="20">
-        <v>9052.92</v>
+        <v>9575.92</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -6546,50 +6540,50 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="1" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O83" s="20">
-        <v>9027.06</v>
+        <v>9493.58</v>
       </c>
       <c r="P83" s="20">
-        <v>9056.26</v>
+        <v>9516.5300000000007</v>
       </c>
       <c r="Q83" s="8">
         <f t="shared" si="0"/>
-        <v>9063.6</v>
+        <v>9541</v>
       </c>
       <c r="R83" s="8">
         <f t="shared" si="1"/>
-        <v>9073.6</v>
+        <v>9551</v>
       </c>
       <c r="S83" s="20">
-        <v>9077.67</v>
+        <v>9561.18</v>
       </c>
       <c r="T83" s="20">
-        <v>9102.9699999999993</v>
+        <v>9590.01</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -6598,187 +6592,65 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="O84" s="20">
-        <v>9189.73</v>
-      </c>
-      <c r="P84" s="20">
-        <v>9216.01</v>
       </c>
       <c r="Q84" s="8">
         <f t="shared" si="0"/>
-        <v>9224</v>
+        <v>10825</v>
       </c>
       <c r="R84" s="8">
         <f t="shared" si="1"/>
-        <v>9234</v>
-      </c>
-      <c r="S84" s="20">
-        <v>9235.06</v>
-      </c>
-      <c r="T84" s="20">
-        <v>9254.11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O85" s="20">
-        <v>9486.94</v>
-      </c>
-      <c r="P85" s="20">
-        <v>9508.91</v>
-      </c>
-      <c r="Q85" s="8">
-        <f t="shared" si="0"/>
-        <v>9526.1</v>
-      </c>
-      <c r="R85" s="8">
-        <f t="shared" si="1"/>
-        <v>9536.1</v>
-      </c>
-      <c r="S85" s="20">
-        <v>9552.98</v>
-      </c>
-      <c r="T85" s="20">
-        <v>9575.92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O86" s="20">
-        <v>9493.58</v>
-      </c>
-      <c r="P86" s="20">
-        <v>9516.5300000000007</v>
-      </c>
-      <c r="Q86" s="8">
-        <f t="shared" si="0"/>
-        <v>9541</v>
-      </c>
-      <c r="R86" s="8">
-        <f t="shared" si="1"/>
-        <v>9551</v>
-      </c>
-      <c r="S86" s="20">
-        <v>9561.18</v>
-      </c>
-      <c r="T86" s="20">
-        <v>9590.01</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q87" s="8">
-        <f t="shared" si="0"/>
-        <v>10825</v>
-      </c>
-      <c r="R87" s="8">
-        <f t="shared" si="1"/>
         <v>10835</v>
       </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="2"/>
+      <c r="M88" s="7"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="2"/>
+      <c r="K89" s="8"/>
+      <c r="M89" s="7"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="2"/>
+      <c r="M90" s="7"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
@@ -6800,7 +6672,6 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="2"/>
-      <c r="K92" s="8"/>
       <c r="M92" s="7"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -6980,51 +6851,18 @@
       <c r="M108" s="7"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="2"/>
-      <c r="M109" s="7"/>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="2"/>
-      <c r="M110" s="7"/>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="2"/>
-      <c r="M111" s="7"/>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="M112" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="M109" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7051,13 +6889,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7068,7 +6906,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>11</v>
@@ -7082,19 +6920,19 @@
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>13</v>
@@ -7102,19 +6940,19 @@
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>13</v>
@@ -7122,19 +6960,19 @@
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>13</v>
@@ -7142,19 +6980,19 @@
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>13</v>
@@ -7162,19 +7000,19 @@
     </row>
     <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>13</v>
@@ -7182,19 +7020,19 @@
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>13</v>
@@ -7202,19 +7040,19 @@
     </row>
     <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>13</v>
@@ -7222,19 +7060,19 @@
     </row>
     <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>13</v>
@@ -7250,19 +7088,19 @@
     </row>
     <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>13</v>
@@ -7270,19 +7108,19 @@
     </row>
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
@@ -7290,19 +7128,19 @@
     </row>
     <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>13</v>
@@ -7310,19 +7148,19 @@
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>13</v>
@@ -7330,19 +7168,19 @@
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>13</v>
@@ -7350,19 +7188,19 @@
     </row>
     <row r="17" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>13</v>
@@ -7370,19 +7208,19 @@
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>13</v>
@@ -7390,19 +7228,19 @@
     </row>
     <row r="19" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>13</v>
@@ -7418,19 +7256,19 @@
     </row>
     <row r="21" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>21</v>
@@ -7438,19 +7276,19 @@
     </row>
     <row r="22" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>21</v>
@@ -7469,19 +7307,19 @@
     </row>
     <row r="24" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="E24" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>21</v>
@@ -7492,19 +7330,19 @@
     </row>
     <row r="25" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>21</v>
@@ -7516,19 +7354,19 @@
     </row>
     <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>21</v>
@@ -7567,19 +7405,19 @@
     </row>
     <row r="29" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>21</v>
@@ -7587,19 +7425,19 @@
     </row>
     <row r="30" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>21</v>
@@ -7607,19 +7445,19 @@
     </row>
     <row r="31" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>21</v>
@@ -7635,19 +7473,19 @@
     </row>
     <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="E33" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>21</v>
@@ -7655,19 +7493,19 @@
     </row>
     <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>21</v>
@@ -7675,19 +7513,19 @@
     </row>
     <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>90</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>21</v>
@@ -7703,19 +7541,19 @@
     </row>
     <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="E37" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>21</v>
@@ -7723,19 +7561,19 @@
     </row>
     <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>21</v>
@@ -7743,19 +7581,19 @@
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>21</v>
@@ -7771,19 +7609,19 @@
     </row>
     <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B41" s="9">
         <v>7135.79</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D41" s="9">
         <v>7136</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>21</v>
@@ -7791,19 +7629,19 @@
     </row>
     <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B42" s="9">
         <v>7751</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D42" s="9">
         <v>7751</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>21</v>
@@ -7811,19 +7649,19 @@
     </row>
     <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B43" s="9">
         <v>4740</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D43" s="9">
         <v>4740</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>21</v>

--- a/src/specsiser/literature_data/lines_data.xlsx
+++ b/src/specsiser/literature_data/lines_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm Projects\spectra-synthesizer\src\specsiser\literature_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963347BF-3C27-4FE5-965D-9A095ECE580B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1688C808-02A5-42B0-B570-CA6D44D55FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4776" yWindow="2172" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="449">
   <si>
     <t>wavelength</t>
   </si>
@@ -1741,6 +1741,24 @@
   </si>
   <si>
     <t>$7751\,[ArIII]$</t>
+  </si>
+  <si>
+    <t>sigma_vel</t>
+  </si>
+  <si>
+    <t>sigma_err_vel</t>
+  </si>
+  <si>
+    <t>peak_flux</t>
+  </si>
+  <si>
+    <t>peak_wave</t>
+  </si>
+  <si>
+    <t>v_r</t>
+  </si>
+  <si>
+    <t>v_r_err</t>
   </si>
 </sst>
 </file>
@@ -2248,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANH109"/>
+  <dimension ref="A1:ANN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S58" sqref="S58:T67"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,18 +2291,21 @@
     <col min="21" max="21" width="14.44140625" style="20" customWidth="1"/>
     <col min="22" max="23" width="13.6640625" style="20" customWidth="1"/>
     <col min="24" max="24" width="15.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.109375" style="20" customWidth="1"/>
-    <col min="32" max="32" width="12.6640625" style="1" customWidth="1"/>
-    <col min="33" max="1048" width="10.77734375" style="1"/>
+    <col min="25" max="26" width="15.21875" style="20" customWidth="1"/>
+    <col min="27" max="27" width="5.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" style="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="11.109375" style="20" customWidth="1"/>
+    <col min="36" max="36" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.109375" style="20" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" style="1" customWidth="1"/>
+    <col min="39" max="1054" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2355,31 +2376,49 @@
         <v>378</v>
       </c>
       <c r="Y1" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA1" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AC1" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK1" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>379</v>
       </c>
@@ -2423,7 +2462,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>440</v>
       </c>
@@ -2473,7 +2512,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>383</v>
       </c>
@@ -2523,7 +2562,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2575,7 +2614,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2627,7 +2666,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>391</v>
       </c>
@@ -2677,7 +2716,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>396</v>
       </c>
@@ -2727,7 +2766,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>402</v>
       </c>
@@ -2777,7 +2816,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>407</v>
       </c>
@@ -2827,7 +2866,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2879,7 +2918,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>357</v>
       </c>
@@ -2931,7 +2970,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2983,7 +3022,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -3035,7 +3074,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -3087,7 +3126,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>429</v>
       </c>
@@ -4754,7 +4793,7 @@
         <v>6764.16</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>139</v>
       </c>
@@ -4806,7 +4845,7 @@
         <v>6768.52</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>144</v>
       </c>
@@ -4858,7 +4897,7 @@
         <v>7098.74</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>149</v>
       </c>
@@ -4910,7 +4949,7 @@
         <v>7310.7</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>154</v>
       </c>
@@ -4956,7 +4995,7 @@
         <v>7172.1</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>349</v>
       </c>
@@ -5002,7 +5041,7 @@
         <v>7205</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>158</v>
       </c>
@@ -5053,11 +5092,11 @@
       <c r="T54" s="20">
         <v>7365.31</v>
       </c>
-      <c r="AF54" s="1" t="s">
+      <c r="AL54" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -5108,11 +5147,11 @@
       <c r="T55" s="20">
         <v>7370.56</v>
       </c>
-      <c r="AF55" s="1" t="s">
+      <c r="AL55" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>170</v>
       </c>
@@ -5158,7 +5197,7 @@
         <v>7779.58</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -5220,8 +5259,14 @@
       <c r="AC57" s="20"/>
       <c r="AD57" s="20"/>
       <c r="AE57" s="20"/>
-    </row>
-    <row r="58" spans="1:32" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="20"/>
+    </row>
+    <row r="58" spans="1:38" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>176</v>
       </c>
@@ -5283,8 +5328,14 @@
       <c r="AC58" s="20"/>
       <c r="AD58" s="20"/>
       <c r="AE58" s="20"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AH58" s="20"/>
+      <c r="AI58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AK58" s="20"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>180</v>
       </c>
@@ -5336,7 +5387,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>184</v>
       </c>
@@ -5388,7 +5439,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>188</v>
       </c>
@@ -5434,7 +5485,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>191</v>
       </c>
@@ -5486,7 +5537,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>195</v>
       </c>
@@ -5538,7 +5589,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>199</v>
       </c>

--- a/src/specsiser/literature_data/lines_data.xlsx
+++ b/src/specsiser/literature_data/lines_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm Projects\spectra-synthesizer\src\specsiser\literature_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1688C808-02A5-42B0-B570-CA6D44D55FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539E224-FBC2-46F7-A03D-E2FE201D6C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="451">
   <si>
     <t>wavelength</t>
   </si>
@@ -1759,6 +1759,12 @@
   </si>
   <si>
     <t>v_r_err</t>
+  </si>
+  <si>
+    <t>snr_line</t>
+  </si>
+  <si>
+    <t>snr_cont</t>
   </si>
 </sst>
 </file>
@@ -2266,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANN109"/>
+  <dimension ref="A1:ANP109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,21 +2297,21 @@
     <col min="21" max="21" width="14.44140625" style="20" customWidth="1"/>
     <col min="22" max="23" width="13.6640625" style="20" customWidth="1"/>
     <col min="24" max="24" width="15.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.21875" style="20" customWidth="1"/>
-    <col min="27" max="27" width="5.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8" style="20" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="11.109375" style="20" customWidth="1"/>
-    <col min="36" max="36" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.109375" style="20" customWidth="1"/>
-    <col min="38" max="38" width="12.6640625" style="1" customWidth="1"/>
-    <col min="39" max="1054" width="10.77734375" style="1"/>
+    <col min="25" max="28" width="15.21875" style="20" customWidth="1"/>
+    <col min="29" max="29" width="5.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8" style="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="11.109375" style="20" customWidth="1"/>
+    <col min="38" max="38" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.109375" style="20" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" style="1" customWidth="1"/>
+    <col min="41" max="1056" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2382,43 +2388,49 @@
         <v>446</v>
       </c>
       <c r="AA1" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC1" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AH1" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AI1" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AK1" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AL1" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AM1" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>379</v>
       </c>
@@ -2462,7 +2474,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>440</v>
       </c>
@@ -2512,7 +2524,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>383</v>
       </c>
@@ -2562,7 +2574,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2666,7 +2678,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>391</v>
       </c>
@@ -2716,7 +2728,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>396</v>
       </c>
@@ -2766,7 +2778,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>402</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>407</v>
       </c>
@@ -2866,7 +2878,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>357</v>
       </c>
@@ -2970,7 +2982,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -3022,7 +3034,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -3074,7 +3086,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -3126,7 +3138,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>429</v>
       </c>
@@ -4793,7 +4805,7 @@
         <v>6764.16</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>139</v>
       </c>
@@ -4845,7 +4857,7 @@
         <v>6768.52</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>144</v>
       </c>
@@ -4897,7 +4909,7 @@
         <v>7098.74</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>149</v>
       </c>
@@ -4949,7 +4961,7 @@
         <v>7310.7</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>154</v>
       </c>
@@ -4995,7 +5007,7 @@
         <v>7172.1</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>349</v>
       </c>
@@ -5041,7 +5053,7 @@
         <v>7205</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>158</v>
       </c>
@@ -5092,11 +5104,11 @@
       <c r="T54" s="20">
         <v>7365.31</v>
       </c>
-      <c r="AL54" s="1" t="s">
+      <c r="AN54" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -5147,11 +5159,11 @@
       <c r="T55" s="20">
         <v>7370.56</v>
       </c>
-      <c r="AL55" s="1" t="s">
+      <c r="AN55" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>170</v>
       </c>
@@ -5197,7 +5209,7 @@
         <v>7779.58</v>
       </c>
     </row>
-    <row r="57" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -5265,8 +5277,10 @@
       <c r="AI57" s="20"/>
       <c r="AJ57" s="20"/>
       <c r="AK57" s="20"/>
-    </row>
-    <row r="58" spans="1:38" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL57" s="20"/>
+      <c r="AM57" s="20"/>
+    </row>
+    <row r="58" spans="1:40" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>176</v>
       </c>
@@ -5334,8 +5348,10 @@
       <c r="AI58" s="20"/>
       <c r="AJ58" s="20"/>
       <c r="AK58" s="20"/>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL58" s="20"/>
+      <c r="AM58" s="20"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>180</v>
       </c>
@@ -5387,7 +5403,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>184</v>
       </c>
@@ -5439,7 +5455,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>188</v>
       </c>
@@ -5485,7 +5501,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>191</v>
       </c>
@@ -5537,7 +5553,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>195</v>
       </c>
@@ -5589,7 +5605,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>199</v>
       </c>

--- a/src/specsiser/literature_data/lines_data.xlsx
+++ b/src/specsiser/literature_data/lines_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm Projects\spectra-synthesizer\src\specsiser\literature_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539E224-FBC2-46F7-A03D-E2FE201D6C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B574BBD3-E51D-4067-ABE2-EC02F5733DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="2868" windowWidth="13032" windowHeight="8040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1734,9 +1734,6 @@
     <t>$3704\,HeI$</t>
   </si>
   <si>
-    <t>He1_3704A</t>
-  </si>
-  <si>
     <t>cont</t>
   </si>
   <si>
@@ -1765,6 +1762,9 @@
   </si>
   <si>
     <t>snr_cont</t>
+  </si>
+  <si>
+    <t>H1_3704A</t>
   </si>
 </sst>
 </file>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ANP109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,22 +2376,22 @@
         <v>372</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="X1" s="20" t="s">
         <v>378</v>
       </c>
       <c r="Y1" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="Z1" s="20" t="s">
-        <v>446</v>
-      </c>
       <c r="AA1" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB1" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>450</v>
       </c>
       <c r="AC1" s="20" t="s">
         <v>368</v>
@@ -2412,16 +2412,16 @@
         <v>377</v>
       </c>
       <c r="AI1" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="AJ1" s="20" t="s">
-        <v>448</v>
-      </c>
       <c r="AK1" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL1" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="AL1" s="20" t="s">
-        <v>444</v>
       </c>
       <c r="AM1" s="20" t="s">
         <v>363</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>388</v>
@@ -5183,7 +5183,7 @@
         <v>21</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>15</v>
